--- a/assets/importSamples/Trak-Detailed-XLSX-Export-Sample/Trak-Detailed-XLSX-Export-Sample.xlsx
+++ b/assets/importSamples/Trak-Detailed-XLSX-Export-Sample/Trak-Detailed-XLSX-Export-Sample.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="72">
   <si>
     <t>Name</t>
   </si>
@@ -68,7 +68,7 @@
 One day, Saitama catches the attention of 19-year-old cyborg Genos, who witnesses his power and wishes to become Saitama's disciple. Genos proposes that the two join the Hero Association in order to become certified heroes that will be recognized for their positive contributions to society. Saitama, who is shocked that no one knows who he is, quickly agrees. Meeting new allies and taking on new foes, Saitama embarks on a new journey as a member of the Hero Association to experience the excitement of battle he once felt.</t>
   </si>
   <si>
-    <t>TV Tokyo, Bandai Visual, Lantis, Asatsu DK, Banpresto, Good Smile Company, Shueisha, JR East Marketing &amp; Communications, Yuichiro Fukushi, Nobuyuki Hosoya, Keita Kodama, Ayuri Taguchi, TV Tokyo, Bandai Visual, Lantis, Asatsu DK, Banpresto, Good Smile Company, Shueisha, JR East Marketing &amp; Communications, Yuichiro Fukushi, Nobuyuki Hosoya, Keita Kodama, Ayuri Taguchi</t>
+    <t>TV Tokyo, Bandai Visual, Lantis, Asatsu DK, Banpresto, Good Smile Company, Shueisha, JR East Marketing &amp; Communications, Yuuichirou Fukushi, Nobuyuki Hosoya, Keita Kodama, Ayuri Taguchi, TV Tokyo, Bandai Visual, Lantis, Asatsu DK, Banpresto, Good Smile Company, Shueisha, JR East Marketing &amp; Communications, Yuuichirou Fukushi, Nobuyuki Hosoya, Keita Kodama, Ayuri Taguchi</t>
   </si>
   <si>
     <t>Madhouse, Madhouse</t>
@@ -84,9 +84,6 @@
   </si>
   <si>
     <t>すずめの戸締まり</t>
-  </si>
-  <si>
-    <t>5.00</t>
   </si>
   <si>
     <t xml:space="preserve">On her way to school one day, Suzume Iwato stumbles upon Souta Munakata, a young man searching for abandoned areas. The high school girl directs Souta to a nearby ruin, but out of pure curiosity, she herself decides to head to the same destination.
@@ -94,16 +91,16 @@
 With the "keystone" released, the evil within the other universe can now freely escape and wreak havoc throughout Japan. Intending to correct her dangerous mistake, Suzume joins Souta—whose true goal is to prevent evil from festering—in finding and locking all open doors before the country is destroyed.</t>
   </si>
   <si>
-    <t>Makoto Shinkai, Kenji Imura, Katsuya Shigehara, Kenzou Masaoka, Makoto Shinkai, Kenji Imura, Katsuya Shigehara</t>
-  </si>
-  <si>
-    <t>STORY, STORY</t>
-  </si>
-  <si>
-    <t>Haru Yamada, Haru Yamada</t>
-  </si>
-  <si>
-    <t>CoMix Wave Films, CoMix Wave Films</t>
+    <t>Makoto Shinkai, Kenji Imura, Katsuya Shigehara</t>
+  </si>
+  <si>
+    <t>STORY</t>
+  </si>
+  <si>
+    <t>Haru Yamada</t>
+  </si>
+  <si>
+    <t>CoMix Wave Films</t>
   </si>
   <si>
     <t>11-11-2022</t>
@@ -112,16 +109,10 @@
     <t>Adventure, Fantasy</t>
   </si>
   <si>
-    <t>Tomo-chan Is a Girl!</t>
+    <t>Tomo-chan is a Girl!</t>
   </si>
   <si>
     <t>トモちゃんは女の子！</t>
-  </si>
-  <si>
-    <t>9.00</t>
-  </si>
-  <si>
-    <t>Anime review!</t>
   </si>
   <si>
     <t xml:space="preserve">Childhood friends Tomo Aizawa and Junichirou "Jun" Kubota do everything together, whether it be training or just enjoying a fun day out. Anyone would think that these two are best friends for life. The only issue is that the tomboyish Tomo is in love with Jun, but he regards her like a brother.
@@ -164,15 +155,9 @@
     <t>Season</t>
   </si>
   <si>
-    <t>Season 1</t>
-  </si>
-  <si>
     <t>12-21-2015</t>
   </si>
   <si>
-    <t>Completed</t>
-  </si>
-  <si>
     <t>01</t>
   </si>
   <si>
@@ -236,43 +221,16 @@
     <t>Episode 12</t>
   </si>
   <si>
-    <t>Season 2</t>
-  </si>
-  <si>
-    <t>04-10-2019</t>
-  </si>
-  <si>
-    <t>07-03-2019</t>
-  </si>
-  <si>
-    <t>Plan To Watch</t>
-  </si>
-  <si>
     <t>Movie</t>
   </si>
   <si>
-    <t>Item 1</t>
-  </si>
-  <si>
-    <t>06-20-2023</t>
-  </si>
-  <si>
-    <t>5</t>
+    <t>Single</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
     <t>03-30-2023</t>
-  </si>
-  <si>
-    <t>02-01-2023</t>
-  </si>
-  <si>
-    <t>I Want to Be Seen as a Girl! &amp; A Terrifying Challenge</t>
-  </si>
-  <si>
-    <t>First episode comments!</t>
   </si>
   <si>
     <t>Episode 13</t>
@@ -804,78 +762,78 @@
         <v>22</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" ht="75" customHeight="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="H4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="K4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -891,7 +849,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -913,31 +871,31 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>3</v>
@@ -945,31 +903,31 @@
     </row>
     <row r="2" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>15</v>
@@ -977,31 +935,31 @@
     </row>
     <row r="3" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="I3" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>15</v>
@@ -1009,31 +967,31 @@
     </row>
     <row r="4" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="I4" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>15</v>
@@ -1041,19 +999,19 @@
     </row>
     <row r="5" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>15</v>
@@ -1062,10 +1020,10 @@
         <v>15</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>15</v>
@@ -1073,19 +1031,19 @@
     </row>
     <row r="6" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>15</v>
@@ -1094,10 +1052,10 @@
         <v>15</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>15</v>
@@ -1105,19 +1063,19 @@
     </row>
     <row r="7" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>15</v>
@@ -1126,10 +1084,10 @@
         <v>15</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>15</v>
@@ -1137,19 +1095,19 @@
     </row>
     <row r="8" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>15</v>
@@ -1158,10 +1116,10 @@
         <v>15</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>15</v>
@@ -1169,19 +1127,19 @@
     </row>
     <row r="9" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>15</v>
@@ -1190,10 +1148,10 @@
         <v>15</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>15</v>
@@ -1201,19 +1159,19 @@
     </row>
     <row r="10" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>15</v>
@@ -1222,10 +1180,10 @@
         <v>15</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>15</v>
@@ -1233,19 +1191,19 @@
     </row>
     <row r="11" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>15</v>
@@ -1257,7 +1215,7 @@
         <v>10</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>15</v>
@@ -1265,19 +1223,19 @@
     </row>
     <row r="12" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>15</v>
@@ -1289,7 +1247,7 @@
         <v>11</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>15</v>
@@ -1297,19 +1255,19 @@
     </row>
     <row r="13" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>15</v>
@@ -1321,7 +1279,7 @@
         <v>12</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>15</v>
@@ -1329,31 +1287,31 @@
     </row>
     <row r="14" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>15</v>
@@ -1361,19 +1319,19 @@
     </row>
     <row r="15" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>15</v>
@@ -1382,10 +1340,10 @@
         <v>15</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>15</v>
@@ -1393,19 +1351,19 @@
     </row>
     <row r="16" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>15</v>
@@ -1414,10 +1372,10 @@
         <v>15</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>15</v>
@@ -1425,19 +1383,19 @@
     </row>
     <row r="17" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>15</v>
@@ -1446,10 +1404,10 @@
         <v>15</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>15</v>
@@ -1457,19 +1415,19 @@
     </row>
     <row r="18" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>15</v>
@@ -1478,10 +1436,10 @@
         <v>15</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>15</v>
@@ -1489,19 +1447,19 @@
     </row>
     <row r="19" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>15</v>
@@ -1510,10 +1468,10 @@
         <v>15</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>15</v>
@@ -1521,19 +1479,19 @@
     </row>
     <row r="20" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>15</v>
@@ -1542,10 +1500,10 @@
         <v>15</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>15</v>
@@ -1553,19 +1511,19 @@
     </row>
     <row r="21" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>15</v>
@@ -1574,10 +1532,10 @@
         <v>15</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>15</v>
@@ -1585,19 +1543,19 @@
     </row>
     <row r="22" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>15</v>
@@ -1606,10 +1564,10 @@
         <v>15</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>15</v>
@@ -1617,19 +1575,19 @@
     </row>
     <row r="23" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>15</v>
@@ -1641,7 +1599,7 @@
         <v>10</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>15</v>
@@ -1649,19 +1607,19 @@
     </row>
     <row r="24" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>15</v>
@@ -1673,9 +1631,41 @@
         <v>11</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="J24" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="2">
+        <v>12</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1709,31 +1699,31 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>3</v>
@@ -1741,31 +1731,31 @@
     </row>
     <row r="2" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>15</v>
@@ -1801,31 +1791,31 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>3</v>
@@ -1833,63 +1823,63 @@
     </row>
     <row r="2" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G2" s="5">
-        <v>9</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="I3" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>15</v>
@@ -1897,16 +1887,16 @@
     </row>
     <row r="4" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>15</v>
@@ -1918,10 +1908,10 @@
         <v>15</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>15</v>
@@ -1929,16 +1919,16 @@
     </row>
     <row r="5" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>15</v>
@@ -1950,10 +1940,10 @@
         <v>15</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>15</v>
@@ -1961,16 +1951,16 @@
     </row>
     <row r="6" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>15</v>
@@ -1982,10 +1972,10 @@
         <v>15</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>15</v>
@@ -1993,16 +1983,16 @@
     </row>
     <row r="7" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>15</v>
@@ -2014,10 +2004,10 @@
         <v>15</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>15</v>
@@ -2025,16 +2015,16 @@
     </row>
     <row r="8" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>15</v>
@@ -2046,10 +2036,10 @@
         <v>15</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>15</v>
@@ -2057,16 +2047,16 @@
     </row>
     <row r="9" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>15</v>
@@ -2078,10 +2068,10 @@
         <v>15</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>15</v>
@@ -2089,16 +2079,16 @@
     </row>
     <row r="10" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>15</v>
@@ -2110,10 +2100,10 @@
         <v>15</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>15</v>
@@ -2121,16 +2111,16 @@
     </row>
     <row r="11" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>15</v>
@@ -2145,7 +2135,7 @@
         <v>10</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>15</v>
@@ -2153,16 +2143,16 @@
     </row>
     <row r="12" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>15</v>
@@ -2177,7 +2167,7 @@
         <v>11</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>15</v>
@@ -2185,16 +2175,16 @@
     </row>
     <row r="13" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>15</v>
@@ -2209,7 +2199,7 @@
         <v>12</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>15</v>
@@ -2217,16 +2207,16 @@
     </row>
     <row r="14" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>15</v>
@@ -2241,7 +2231,7 @@
         <v>13</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>15</v>

--- a/assets/importSamples/Trak-Detailed-XLSX-Export-Sample/Trak-Detailed-XLSX-Export-Sample.xlsx
+++ b/assets/importSamples/Trak-Detailed-XLSX-Export-Sample/Trak-Detailed-XLSX-Export-Sample.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
     <sheet sheetId="1" name="Category-Anime" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="Anime-OnePunchMan" state="visible" r:id="rId5"/>
-    <sheet sheetId="3" name="Anime-Suzume" state="visible" r:id="rId6"/>
-    <sheet sheetId="4" name="Anime-Tomo-chanIsAGirl!" state="visible" r:id="rId7"/>
+    <sheet sheetId="2" name="Category-Book" state="visible" r:id="rId5"/>
+    <sheet sheetId="3" name="Anime-OnePunchMan" state="visible" r:id="rId6"/>
+    <sheet sheetId="4" name="Anime-Suzume" state="visible" r:id="rId7"/>
+    <sheet sheetId="5" name="Anime-Tomo-chanIsAGirl!" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="109">
   <si>
     <t>Name</t>
   </si>
@@ -77,7 +78,7 @@
     <t>10-05-2015</t>
   </si>
   <si>
-    <t>Action, Comedy</t>
+    <t>, Action, Comedy</t>
   </si>
   <si>
     <t>Suzume</t>
@@ -106,7 +107,7 @@
     <t>11-11-2022</t>
   </si>
   <si>
-    <t>Adventure, Fantasy</t>
+    <t>, Adventure, Fantasy</t>
   </si>
   <si>
     <t>Tomo-chan is a Girl!</t>
@@ -119,16 +120,127 @@
 At the start of their first year of high school, Tomo confesses her feelings to Jun. However, her rough mannerisms and lack of hesitance to throw a punch do nothing to sway Jun's heart. Realizing that he will remain indifferent to her affections unless she does something about it, Tomo must find a way to knock some sense into Jun and open his eyes to what is right in front of him.</t>
   </si>
   <si>
-    <t>Aniplex, Seikaisha, Crunchyroll, INSPION Edge, Noritomo Yonai, Kanako Takahashi, Kunihiro Okamura, Yuki Kataoka</t>
-  </si>
-  <si>
-    <t>Lay-duce</t>
+    <t>Aniplex, Seikaisha, Crunchyroll, INSPION Edge, Noritomo Yonai, Kanako Takahashi, Kunihiro Okamura, Yuki Kataoka, Aniplex, Seikaisha, Crunchyroll, INSPION Edge, Noritomo Yonai, Kanako Takahashi, Kunihiro Okamura, Yuki Kataoka</t>
+  </si>
+  <si>
+    <t>Lay-duce, Lay-duce</t>
   </si>
   <si>
     <t>01-05-2023</t>
   </si>
   <si>
-    <t>Comedy, Romance</t>
+    <t>, Comedy, Romance</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Original Title</t>
+  </si>
+  <si>
+    <t>ASIN/ISBN</t>
+  </si>
+  <si>
+    <t>Authors</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>Publication Date</t>
+  </si>
+  <si>
+    <t>Number of Pages</t>
+  </si>
+  <si>
+    <t>Media Type</t>
+  </si>
+  <si>
+    <t>Last Read Date</t>
+  </si>
+  <si>
+    <t>Journey to the Center of the Earth</t>
+  </si>
+  <si>
+    <t>Voyage au centre de la Terre</t>
+  </si>
+  <si>
+    <t>An adventurous geology professor chances upon a manuscript in which a 16th-century explorer claims to have found a route to the earth's core. Professor Lidenbrock can't resist the opportunity to investigate, and with his nephew Axel, he sets off across Iceland in the company of Hans Bjelke, a native guide. The expedition descends into an extinct volcano toward a sunless sea, where they encounter a subterranean world of luminous rocks, antediluvian forests, and fantastic marine life — a living past that holds the secrets to the origins of human existence.</t>
+  </si>
+  <si>
+    <t>978-0-55321-397-3</t>
+  </si>
+  <si>
+    <t>Jules Verne, Lowell Bair, Kim Stanley Robinson</t>
+  </si>
+  <si>
+    <t>Bantam</t>
+  </si>
+  <si>
+    <t>11-25-1864</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>Softcover</t>
+  </si>
+  <si>
+    <t>Adventure, Audiobook, Classics, Fantasy, Fiction, France, French Literature, Literature, Novels, Science Fiction</t>
+  </si>
+  <si>
+    <t>The Fellowship of the Ring (The Lord of the Rings, #1)</t>
+  </si>
+  <si>
+    <t>The Lord of the Rings: The Fellowship of the Ring</t>
+  </si>
+  <si>
+    <t>One Ring to rule them all, One Ring to find them, One Ring to bring them all and in the darkness bind them.In ancient times the Rings of Power were crafted by the Elven-smiths, and Sauron, the Dark Lord, forged the One Ring, filling it with his own power so that he could rule all others. But the One Ring was taken from him, and though he sought it throughout Middle-earth, it remained lost to him. After many ages it fell into the hands of Bilbo Baggins, as told in The Hobbit.In a sleepy village in the Shire, young Frodo Baggins finds himself faced with an immense task, as his elderly cousin Bilbo entrusts the Ring to his care. Frodo must leave his home and make a perilous journey across Middle-earth to the Cracks of Doom, there to destroy the Ring and foil the Dark Lord in his evil purpose.</t>
+  </si>
+  <si>
+    <t>B007978NPG</t>
+  </si>
+  <si>
+    <t>J.R.R. Tolkien</t>
+  </si>
+  <si>
+    <t>William Morrow</t>
+  </si>
+  <si>
+    <t>07-29-1954</t>
+  </si>
+  <si>
+    <t>432</t>
+  </si>
+  <si>
+    <t>eBook</t>
+  </si>
+  <si>
+    <t>Adventure, Audiobook, Classics, Epic Fantasy, Fantasy, Fiction, High Fantasy, Novels, Science Fiction Fantasy, Young Adult</t>
+  </si>
+  <si>
+    <t>The Road to Reality: A Complete Guide to the Laws of the Universe</t>
+  </si>
+  <si>
+    <t>Roger Penrose, one of the most accomplished scientists of our time, presents the only comprehensive and comprehensible account of the physics of the universe. From the very first attempts by the Greeks to grapple with the complexities of our known world to the latest application of infinity in physics, The Road to Reality carefully explores the movement of the smallest atomic particles and reaches into the vastness of intergalactic space. Here, Penrose examines the mathematical foundations of the physical universe, exposing the underlying beauty of physics and giving us one the most important works in modern science writing.</t>
+  </si>
+  <si>
+    <t>978-0-67977-631-4</t>
+  </si>
+  <si>
+    <t>Roger Penrose</t>
+  </si>
+  <si>
+    <t>Vintage</t>
+  </si>
+  <si>
+    <t>01-01-2004</t>
+  </si>
+  <si>
+    <t>1099</t>
+  </si>
+  <si>
+    <t>Astronomy, History, Mathematics, Nonfiction, Philosophy, Physics, Popular Science, Reference, Science, Unfinished</t>
   </si>
   <si>
     <t>Type</t>
@@ -298,7 +410,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -311,6 +423,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -838,8 +953,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId1" location="#'Anime-OnePunchMan'!A2"/>
+    <hyperlink ref="A3" r:id="rId2" location="#'Anime-Suzume'!A2"/>
     <hyperlink ref="A4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -848,6 +963,200 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="40" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="5" width="125" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
+    <col min="7" max="8" width="30" customWidth="1"/>
+    <col min="9" max="9" width="25" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="30" customWidth="1"/>
+    <col min="12" max="12" width="25" customWidth="1"/>
+    <col min="13" max="13" width="40" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="20" customHeight="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" ht="75" customHeight="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" ht="75" customHeight="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" ht="75" customHeight="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
@@ -871,31 +1180,31 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>3</v>
@@ -903,16 +1212,16 @@
     </row>
     <row r="2" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>15</v>
@@ -920,14 +1229,14 @@
       <c r="F2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>15</v>
@@ -935,16 +1244,16 @@
     </row>
     <row r="3" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>15</v>
@@ -952,14 +1261,14 @@
       <c r="F3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>15</v>
@@ -967,16 +1276,16 @@
     </row>
     <row r="4" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>15</v>
@@ -984,14 +1293,14 @@
       <c r="F4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>15</v>
@@ -999,16 +1308,16 @@
     </row>
     <row r="5" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>15</v>
@@ -1016,14 +1325,14 @@
       <c r="F5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>15</v>
@@ -1031,16 +1340,16 @@
     </row>
     <row r="6" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>15</v>
@@ -1048,14 +1357,14 @@
       <c r="F6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>15</v>
@@ -1063,16 +1372,16 @@
     </row>
     <row r="7" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>15</v>
@@ -1080,14 +1389,14 @@
       <c r="F7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>15</v>
@@ -1095,16 +1404,16 @@
     </row>
     <row r="8" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>15</v>
@@ -1112,14 +1421,14 @@
       <c r="F8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>15</v>
@@ -1127,16 +1436,16 @@
     </row>
     <row r="9" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>15</v>
@@ -1144,14 +1453,14 @@
       <c r="F9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>15</v>
@@ -1159,16 +1468,16 @@
     </row>
     <row r="10" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>15</v>
@@ -1176,14 +1485,14 @@
       <c r="F10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>15</v>
@@ -1191,16 +1500,16 @@
     </row>
     <row r="11" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>15</v>
@@ -1208,14 +1517,14 @@
       <c r="F11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="2">
         <v>10</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>15</v>
@@ -1223,16 +1532,16 @@
     </row>
     <row r="12" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>15</v>
@@ -1240,14 +1549,14 @@
       <c r="F12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H12" s="2">
         <v>11</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>15</v>
@@ -1255,16 +1564,16 @@
     </row>
     <row r="13" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>15</v>
@@ -1272,14 +1581,14 @@
       <c r="F13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H13" s="2">
         <v>12</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>15</v>
@@ -1287,16 +1596,16 @@
     </row>
     <row r="14" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>15</v>
@@ -1304,14 +1613,14 @@
       <c r="F14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>46</v>
+      <c r="G14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="2">
+        <v>13</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>15</v>
@@ -1319,16 +1628,16 @@
     </row>
     <row r="15" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>15</v>
@@ -1336,14 +1645,14 @@
       <c r="F15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>48</v>
+      <c r="G15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="2">
+        <v>14</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>15</v>
@@ -1351,16 +1660,16 @@
     </row>
     <row r="16" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>15</v>
@@ -1368,14 +1677,14 @@
       <c r="F16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>50</v>
+      <c r="G16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="2">
+        <v>15</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>15</v>
@@ -1383,16 +1692,16 @@
     </row>
     <row r="17" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>15</v>
@@ -1400,14 +1709,14 @@
       <c r="F17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>52</v>
+      <c r="G17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="2">
+        <v>16</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>15</v>
@@ -1415,16 +1724,16 @@
     </row>
     <row r="18" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>15</v>
@@ -1432,14 +1741,14 @@
       <c r="F18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>54</v>
+      <c r="G18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="2">
+        <v>17</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>15</v>
@@ -1447,16 +1756,16 @@
     </row>
     <row r="19" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>15</v>
@@ -1464,14 +1773,14 @@
       <c r="F19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>56</v>
+      <c r="G19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="2">
+        <v>18</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>15</v>
@@ -1479,16 +1788,16 @@
     </row>
     <row r="20" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>15</v>
@@ -1496,14 +1805,14 @@
       <c r="F20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>58</v>
+      <c r="G20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="2">
+        <v>19</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>15</v>
@@ -1511,16 +1820,16 @@
     </row>
     <row r="21" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>15</v>
@@ -1528,14 +1837,14 @@
       <c r="F21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>60</v>
+      <c r="G21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="2">
+        <v>20</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>15</v>
@@ -1543,16 +1852,16 @@
     </row>
     <row r="22" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>15</v>
@@ -1560,14 +1869,14 @@
       <c r="F22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>62</v>
+      <c r="G22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="2">
+        <v>21</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>15</v>
@@ -1575,16 +1884,16 @@
     </row>
     <row r="23" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>15</v>
@@ -1592,14 +1901,14 @@
       <c r="F23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H23" s="2">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>15</v>
@@ -1607,16 +1916,16 @@
     </row>
     <row r="24" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>15</v>
@@ -1624,14 +1933,14 @@
       <c r="F24" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H24" s="2">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>15</v>
@@ -1639,16 +1948,16 @@
     </row>
     <row r="25" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>15</v>
@@ -1656,14 +1965,14 @@
       <c r="F25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H25" s="2">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>15</v>
@@ -1675,7 +1984,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -1699,31 +2008,31 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>3</v>
@@ -1731,10 +2040,10 @@
     </row>
     <row r="2" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>28</v>
@@ -1748,14 +2057,14 @@
       <c r="F2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>15</v>
@@ -1767,9 +2076,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1791,31 +2100,31 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>3</v>
@@ -1823,16 +2132,16 @@
     </row>
     <row r="2" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>15</v>
@@ -1840,14 +2149,14 @@
       <c r="F2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>15</v>
@@ -1855,16 +2164,16 @@
     </row>
     <row r="3" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>15</v>
@@ -1872,14 +2181,14 @@
       <c r="F3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>15</v>
@@ -1887,16 +2196,16 @@
     </row>
     <row r="4" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>15</v>
@@ -1904,14 +2213,14 @@
       <c r="F4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>15</v>
@@ -1919,16 +2228,16 @@
     </row>
     <row r="5" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>15</v>
@@ -1936,14 +2245,14 @@
       <c r="F5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>15</v>
@@ -1951,16 +2260,16 @@
     </row>
     <row r="6" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>15</v>
@@ -1968,14 +2277,14 @@
       <c r="F6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>15</v>
@@ -1983,16 +2292,16 @@
     </row>
     <row r="7" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>15</v>
@@ -2000,14 +2309,14 @@
       <c r="F7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>15</v>
@@ -2015,16 +2324,16 @@
     </row>
     <row r="8" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>15</v>
@@ -2032,14 +2341,14 @@
       <c r="F8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>15</v>
@@ -2047,16 +2356,16 @@
     </row>
     <row r="9" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>15</v>
@@ -2064,14 +2373,14 @@
       <c r="F9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>15</v>
@@ -2079,16 +2388,16 @@
     </row>
     <row r="10" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>15</v>
@@ -2096,14 +2405,14 @@
       <c r="F10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>15</v>
@@ -2111,16 +2420,16 @@
     </row>
     <row r="11" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>15</v>
@@ -2128,14 +2437,14 @@
       <c r="F11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="2">
         <v>10</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>15</v>
@@ -2143,16 +2452,16 @@
     </row>
     <row r="12" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>15</v>
@@ -2160,14 +2469,14 @@
       <c r="F12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H12" s="2">
         <v>11</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>15</v>
@@ -2175,16 +2484,16 @@
     </row>
     <row r="13" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>15</v>
@@ -2192,14 +2501,14 @@
       <c r="F13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H13" s="2">
         <v>12</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>15</v>
@@ -2207,16 +2516,16 @@
     </row>
     <row r="14" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>15</v>
@@ -2224,16 +2533,432 @@
       <c r="F14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H14" s="2">
         <v>13</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="J14" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="2">
+        <v>10</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="2">
+        <v>11</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="2">
+        <v>12</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="2">
+        <v>13</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J27" s="2" t="s">
         <v>15</v>
       </c>
     </row>

--- a/assets/importSamples/Trak-Detailed-XLSX-Export-Sample/Trak-Detailed-XLSX-Export-Sample.xlsx
+++ b/assets/importSamples/Trak-Detailed-XLSX-Export-Sample/Trak-Detailed-XLSX-Export-Sample.xlsx
@@ -11,7 +11,7 @@
     <sheet sheetId="5" name="Category-Show" state="visible" r:id="rId8"/>
     <sheet sheetId="6" name="Show-Ahsoka" state="visible" r:id="rId9"/>
     <sheet sheetId="7" name="Show-Andor" state="visible" r:id="rId10"/>
-    <sheet sheetId="8" name="Manga-DemonSlayer" state="visible" r:id="rId11"/>
+    <sheet sheetId="8" name="Manga-DemonSlayer-KimetsuNoYaib" state="visible" r:id="rId11"/>
     <sheet sheetId="9" name="Anime-OnePunchMan" state="visible" r:id="rId12"/>
     <sheet sheetId="10" name="Manga-RomanticKiller" state="visible" r:id="rId13"/>
     <sheet sheetId="11" name="Show-SecretInvasion" state="visible" r:id="rId14"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3119" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3119" uniqueCount="542">
   <si>
     <t>Name</t>
   </si>
@@ -101,10 +101,10 @@
 With the "keystone" released, the evil within the other universe can now freely escape and wreak havoc throughout Japan. Intending to correct her dangerous mistake, Suzume joins Souta—whose true goal is to prevent evil from festering—in finding and locking all open doors before the country is destroyed.</t>
   </si>
   <si>
-    <t>Makoto Shinkai, Kenji Imura, Katsuya Shigehara</t>
-  </si>
-  <si>
-    <t>Aniplex, TOHO, JR East Marketing &amp; Communications, Kadokawa, voque ting, STORY, Lawson Entertainment</t>
+    <t>Makoto Shinkai, Kenji Imura</t>
+  </si>
+  <si>
+    <t>Aniplex, TOHO, JR East Marketing &amp; Communications, Kadokawa, voque ting, STORY, Lawson Entertainment, Kouichirou Itou</t>
   </si>
   <si>
     <t>Haru Yamada</t>
@@ -192,6 +192,9 @@
     <t>240</t>
   </si>
   <si>
+    <t>Softcover</t>
+  </si>
+  <si>
     <t>Adventure, Audiobook, Classics, Fantasy, Fiction, France, French Literature, Literature, Novels, Science Fiction</t>
   </si>
   <si>
@@ -219,6 +222,9 @@
     <t>432</t>
   </si>
   <si>
+    <t>eBook</t>
+  </si>
+  <si>
     <t>Adventure, Audiobook, Classics, Epic Fantasy, Fantasy, Fiction, High Fantasy, Novels, Science Fiction Fantasy, Young Adult</t>
   </si>
   <si>
@@ -282,42 +288,45 @@
     <t>The Avengers and their allies must be willing to sacrifice all in an attempt to defeat the powerful Thanos before his blitz of devastation and ruin puts an end to the universe.</t>
   </si>
   <si>
+    <t>149 m</t>
+  </si>
+  <si>
+    <t>Anthony Russo, Joe Russo</t>
+  </si>
+  <si>
+    <t>Christopher Markus, Stephen McFeely, Stan Lee, Jack Kirby, Joe Simon, Steve Englehart, Steve Gan, Bill Mantlo, Keith Giffen, Jim Starlin, Larry Lieber, Don Heck</t>
+  </si>
+  <si>
+    <t>Walt Disney Studios Motion Pictures, B&amp;H Film Distribution, Buena Vista International, Cinecolor Films, Cineforum, Falcon, Feelgood Entertainment, Forum Film, Forum Hungary, NOS Audiovisuais, Press Play Pictures, Saturn Films, Ster-Kinekor Pictures, United International Pictures (UIP), Walt Disney Company, Walt Disney Studios Motion Pictures Argentina, Walt Disney Studios Motion Pictures, Walt Disney Studios Motion Pictures, Walt Disney Studios Motion Pictures, Walt Disney Studios Motion Pictures, Walt Disney Studios Motion Pictures, Walt Disney Studios Motion Pictures, Walt Disney Studios Motion Pictures, Walt Disney Studios Motion Pictures, Walt Disney Studios Motion Pictures, Walt Disney Studios Motion Pictures, Walt Disney Studios Motion Pictures, Walt Disney Studios Motion Pictures, Walt Disney Studios Motion Pictures, Walt Disney Studios Motion Pictures, Walt Disney Studios Motion Pictures, Walt Disney Studios Motion Pictures, Walt Disney Studios Motion Pictures, Walt Disney Studios Motion Pictures, Walt Disney Studios Motion Pictures, Walt Disney Studios Motion Pictures, Walt Disney Studios Motion Pictures, Walt Disney Studios Motion Pictures, Walt Disney Studios Motion Pictures, Walt Disney Studios Motion Pictures, Walt Disney Studios Motion Pictures, Walt Disney Studios Motion Pictures, Walt Disney Studios Motion Pictures, Walt Disney Studios Motion Pictures, Walt Disney Studios Motion Pictures, Walt Disney Studios Motion Pictures, Walt Disney Studios Motion Pictures, Walt Disney Studios Sony Pictures Releasing (WDSSPR), Warner Bros., Westec Media Limited, 7Mate, Disney+, Disney+, Hotstar, Walt Disney Studios Home Entertainment, Walt Disney Studios Home Entertainment, Walt Disney Studios Home Entertainment, Walt Disney Studios Home Entertainment</t>
+  </si>
+  <si>
+    <t>Victoria Alonso, Mitchell Bell, Ari Costa, Louis D'Esposito, Jon Favreau, Kevin Feige, Michael Grillo, James Gunn, Stan Lee, JoAnn Perritano, Edu Sallouti, Nicholas Simon, Trinh Tran, Jen Underdahl</t>
+  </si>
+  <si>
+    <t>Marvel Studios, Jason Roberts Productions, South Pictures, Walt Disney Pictures</t>
+  </si>
+  <si>
+    <t>Robert Downey Jr., Chris Hemsworth, Mark Ruffalo, Chris Evans, Scarlett Johansson, Don Cheadle, Benedict Cumberbatch, Tom Holland, Chadwick Boseman, Zoe Saldana, Karen Gillan, Tom Hiddleston, Paul Bettany, Elizabeth Olsen, Anthony Mackie, Sebastian Stan, Idris Elba, Danai Gurira, Peter Dinklage, Benedict Wong, Pom Klementieff, Dave Bautista, Vin Diesel, Bradley Cooper, Gwyneth Paltrow, Benicio Del Toro, Josh Brolin, Chris Pratt, Sean Gunn, William Hurt, Letitia Wright, Terry Notary, Tom Vaughan-Lawlor, Carrie Coon, Michael James Shaw, Stan Lee, Winston Duke, Florence Kasumba, Kerry Condon, Monique Ganderton, Jacob Batalon, Tiffany Espensen, Isabella Amara, Ethan Dizon, Ariana Greenblatt, Ameenah Kaplan, Ross Marquand, Michael Anthony Rogers, Stephen McFeely, Aaron Lazar, Robert Pralgo, Olaniyan Thurmon, Blair Jasin, Matthew Zuk, Laura Miller, Marija Juliette Abney, Janeshia Adams-Ginyard, Gee Alexander, Branden Arnold, Kenneth Branagh, Sergio Briones, Lady Cardinal, Donny Carrington, Lucie Carroll, Jamel D. Chambers, Matthew Christensen, Tye Claybrook Jr., Keith Splinter Davis, Demetrilandell, Cory Dunson, Tony Dupar, Jazzy Ellis, David Dman Escobar, Steven Essani, Jacob Evans, Simeon Freeman, Dylan Gajai, Daniela Gaskie, Martavious Cerrone Gayles, John Gettier, Jomahl Gildersleve, Denisha Gillespie, Solomon Glave, Daniel Graham, Carlos Guity, Dawit Gulilat, Cecil M. Henry, Bobby Hoskins, Rabon Hutcherson, Samuel L. Jackson, Bobby James, Kirk A. Jenkins, Precious Jenkins, Floyd Anthony Johns Jr., Mallory Kidwell, Devin Koehler, Chase Ledgerwood, Elgin Lee, Jefferson Lewis, Marcus Lewis, Luke Maher, Joe Maitland, Tim McAdams, Andrew S. McMillan, Perla Middleton, Michael Pierino Miller, Frank David Monroe, Kevin Montgomery, Chris Moore, Jared Moser, Marie Mouroum, Jachin Myers, Femi Olagoke, Harrison Osterfield, Edward Parker, Gary Peebles, Nathaniel Perry, Khalil' La'Marr Pickett, Annie Pisapia, Taraja Ramsess, Antjuan Rhames, Ryan Robertson, Austin Rospert, Jeremy Sample, Brandon M. Shaw, Bruce Anthony Shepperson, James Siderits, Matthew Excel Simmons, Joseph Singletary, Dominique Elijah Smith, Cobie Smulders, Shawn South, James Sterling, Jénel Stevens, Granger Summerset II, Phedra Syndelle, Hamid-Reza Benjamin Thompson, Robert Tinsley, Laurel O Wagner, Tanya Wheelock, Zola Williams, Kevin D Wilson, Michael David Yuhl</t>
+  </si>
+  <si>
+    <t>04-27-2018</t>
+  </si>
+  <si>
+    <t>Action, Adventure, Sci-Fi</t>
+  </si>
+  <si>
+    <t>Star Wars: Episode IV - A New Hope</t>
+  </si>
+  <si>
+    <t>La guerra de las galaxias, Star Wars: Episode IV - A New Hope, La guerre des étoiles, Star Wars, Star Wars: Episódio IV - Uma Nova Esperança, Star Wars: Episodio IV - Una nueva esperanza, Stjärnornas krig, A Guerra das Estrelas, A New Hope, Adventures of the Starkiller, Adventures of the Starkiller: Episode 1 - The Star Wars, Chiến Tranh Giữa Các Vì Sao Tập 4: Niềm Hi Vọng Mới, Csillagok háborúja, Guerra nas Estrelas, Guerre stellari, Gwiezdne wojny, Gwiezdne wojny: Część IV - Nowa nadzieja, Hvězdné války, Hviezdne vojny, Hviezdne vojny 4: Nová nádej, Hviezdne vojny IV: Nová nádej, Jang-e setarehha, Krieg der Sterne, La guerra de las estrellas, La guerre des étoiles - Un nouvel espoir, Milkhemet Ha'Kokhavim, O polemos ton astron, O polemos ton astron: Mia nea elpida, Ratovi zvijezda, Ratovi zvijezda IV: Nova nada, Războiul stelelor, Războiul stelelor - Episodul IV: O nouă speranță, Star Wars - De sterrenoorlog, Star Wars - Stjernekrigen, Star Wars IV - Una nuova speranza, Star Wars IV 新たなる希望, Star Wars IV: A New Hope, Star Wars IV: Nová naděje, Star Wars IV: Stjernekrigen, Star Wars IV. - Egy új remény, Star Wars IV. rész - Egy új remény, Star Wars エピソード IV 新たなる希望, Star Wars: A New Hope, Star Wars: Egy új remény, Star Wars: Episode 4 - A New Hope, Star Wars: Episode IV - Eine neue Hoffnung, Star Wars: Episode IV - Et nytt håp, Star Wars: Épisode IV - Un nouvel espoir, Star Wars: Épisode IV, la guerre des étoiles, Star Wars: Episode IV: A New Hope, Star Wars: Episodi IV - Uusi toivo, Star Wars: Episodio IV - Una nuova speranza, Star Wars: la guerra de las galaxias, Star Wars: Osa IV - Uus lootus, Star Wars: Uma Nova Esperança, Star Wars: Una nuova speranza, Star Wars: Uusi toivo, Star Wars: Yeni Bir Umut, Stjärnornas krig: Episod IV - Nytt hopp, Stjernekrigen, Stjörnustríð, Sutā wōzu episōdo 4: Aratanaru kibō, Tähtede sõda, Tähtien sota, Tähtien sota - Special Edition, Tähtien sota: Uusi toivo, The Adventures of Luke Starkiller as Taken from the 'Journal of the Whills': Saga I - Star Wars, The Star Wars, The Star Wars: From the Adventures of Luke Starkiller, The War of the World, Vojna zvezd: Epizoda IV - Novo upanje, Yıldız Savaşları, Yıldız Savaşları: Bölüm IV - Yeni Bir Umut, Yulduzlar jangi: Epizod IV - Yangi Umid, Žvaigždžių karai, Ο πόλεμος των άστρων, Ο Πόλεμος των Άστρων: Επεισόδιο IV - Μια Νέα Ελπίδα, Жұлдызды соғыстар, Жұлдызды соғыстар: Эпизод IV - Жаңа үміт, Звездани ратови: Епизода IV - Нова нада, Звёздные войны, Звёздные войны: Эпизод 4 - Новая надежда, Звёздные войны: Эпизод IV - Новая надежда, Зоряні війни, Зоряні війни: Епізод IV - Нова надія, Междузвездни войни, Междузвездни войни: Епизод IV - Нова Надежда, Ратови звезда: Епизода IV - Нова нада, स्टार वॉर्स, スター・ウォーズ, スター・ウォーズ ／新たなる希望, スター・ウォーズ エピソード4／新たなる希望, 星球大战, 星際大戰</t>
+  </si>
+  <si>
+    <t>Luke Skywalker joins forces with a Jedi Knight, a cocky pilot, a Wookiee and two droids to save the galaxy from the Empire's world-destroying battle station, while also attempting to rescue Princess Leia from the mysterious Darth Vader.</t>
+  </si>
+  <si>
     <t>122 m</t>
   </si>
   <si>
-    <t>Anthony Russo, Joe Russo</t>
-  </si>
-  <si>
-    <t>Christopher Markus, Stephen McFeely, Stan Lee, Jack Kirby, Joe Simon, Steve Englehart, Steve Gan, Bill Mantlo, Keith Giffen, Jim Starlin, Larry Lieber, Don Heck</t>
-  </si>
-  <si>
-    <t>Walt Disney Studios Motion Pictures, B&amp;H Film Distribution, Buena Vista International, Cinecolor Films, Cineforum, Falcon, Feelgood Entertainment, Forum Film, Forum Hungary, NOS Audiovisuais, Press Play Pictures, Saturn Films, Ster-Kinekor Pictures, United International Pictures (UIP), Walt Disney Company, Walt Disney Studios Motion Pictures Argentina, Walt Disney Studios Motion Pictures, Walt Disney Studios Motion Pictures, Walt Disney Studios Motion Pictures, Walt Disney Studios Motion Pictures, Walt Disney Studios Motion Pictures, Walt Disney Studios Motion Pictures, Walt Disney Studios Motion Pictures, Walt Disney Studios Motion Pictures, Walt Disney Studios Motion Pictures, Walt Disney Studios Motion Pictures, Walt Disney Studios Motion Pictures, Walt Disney Studios Motion Pictures, Walt Disney Studios Motion Pictures, Walt Disney Studios Motion Pictures, Walt Disney Studios Motion Pictures, Walt Disney Studios Motion Pictures, Walt Disney Studios Motion Pictures, Walt Disney Studios Motion Pictures, Walt Disney Studios Motion Pictures, Walt Disney Studios Motion Pictures, Walt Disney Studios Motion Pictures, Walt Disney Studios Motion Pictures, Walt Disney Studios Motion Pictures, Walt Disney Studios Motion Pictures, Walt Disney Studios Motion Pictures, Walt Disney Studios Motion Pictures, Walt Disney Studios Motion Pictures, Walt Disney Studios Motion Pictures, Walt Disney Studios Motion Pictures, Walt Disney Studios Motion Pictures, Walt Disney Studios Motion Pictures, Walt Disney Studios Sony Pictures Releasing (WDSSPR), Warner Bros., Westec Media Limited, 7Mate, Disney+, Disney+, Hotstar, Walt Disney Studios Home Entertainment, Walt Disney Studios Home Entertainment, Walt Disney Studios Home Entertainment, Walt Disney Studios Home Entertainment</t>
-  </si>
-  <si>
-    <t>Victoria Alonso, Mitchell Bell, Ari Costa, Louis D'Esposito, Jon Favreau, Kevin Feige, Michael Grillo, James Gunn, Stan Lee, JoAnn Perritano, Edu Sallouti, Nicholas Simon, Trinh Tran, Jen Underdahl</t>
-  </si>
-  <si>
-    <t>Marvel Studios, Jason Roberts Productions, South Pictures, Walt Disney Pictures</t>
-  </si>
-  <si>
-    <t>Robert Downey Jr., Chris Hemsworth, Mark Ruffalo, Chris Evans, Scarlett Johansson, Don Cheadle, Benedict Cumberbatch, Tom Holland, Chadwick Boseman, Zoe Saldana, Karen Gillan, Tom Hiddleston, Paul Bettany, Elizabeth Olsen, Anthony Mackie, Sebastian Stan, Idris Elba, Danai Gurira, Peter Dinklage, Benedict Wong, Pom Klementieff, Dave Bautista, Vin Diesel, Bradley Cooper, Gwyneth Paltrow, Benicio Del Toro, Josh Brolin, Chris Pratt, Sean Gunn, William Hurt, Letitia Wright, Terry Notary, Tom Vaughan-Lawlor, Carrie Coon, Michael James Shaw, Stan Lee, Winston Duke, Florence Kasumba, Kerry Condon, Monique Ganderton, Jacob Batalon, Tiffany Espensen, Isabella Amara, Ethan Dizon, Ariana Greenblatt, Ameenah Kaplan, Ross Marquand, Michael Anthony Rogers, Stephen McFeely, Aaron Lazar, Robert Pralgo, Olaniyan Thurmon, Blair Jasin, Matthew Zuk, Laura Miller, Marija Juliette Abney, Janeshia Adams-Ginyard, Gee Alexander, Branden Arnold, Kenneth Branagh, Sergio Briones, Lady Cardinal, Donny Carrington, Lucie Carroll, Jamel D. Chambers, Matthew Christensen, Tye Claybrook Jr., Keith Splinter Davis, Demetrilandell, Cory Dunson, Tony Dupar, Jazzy Ellis, David Dman Escobar, Steven Essani, Jacob Evans, Simeon Freeman, Dylan Gajai, Daniela Gaskie, Martavious Cerrone Gayles, John Gettier, Jomahl Gildersleve, Denisha Gillespie, Solomon Glave, Daniel Graham, Carlos Guity, Dawit Gulilat, Cecil M. Henry, Bobby Hoskins, Rabon Hutcherson, Samuel L. Jackson, Bobby James, Kirk A. Jenkins, Precious Jenkins, Floyd Anthony Johns Jr., Mallory Kidwell, Devin Koehler, Chase Ledgerwood, Elgin Lee, Jefferson Lewis, Marcus Lewis, Luke Maher, Joe Maitland, Tim McAdams, Andrew S. McMillan, Perla Middleton, Michael Pierino Miller, Frank David Monroe, Kevin Montgomery, Chris Moore, Jared Moser, Marie Mouroum, Jachin Myers, Femi Olagoke, Harrison Osterfield, Edward Parker, Gary Peebles, Nathaniel Perry, Khalil' La'Marr Pickett, Annie Pisapia, Taraja Ramsess, Antjuan Rhames, Ryan Robertson, Austin Rospert, Jeremy Sample, Brandon M. Shaw, Bruce Anthony Shepperson, James Siderits, Matthew Excel Simmons, Joseph Singletary, Dominique Elijah Smith, Cobie Smulders, Shawn South, James Sterling, Jénel Stevens, Granger Summerset II, Phedra Syndelle, Hamid-Reza Benjamin Thompson, Robert Tinsley, Laurel O Wagner, Tanya Wheelock, Zola Williams, Kevin D Wilson, Michael David Yuhl</t>
-  </si>
-  <si>
-    <t>04-27-2018</t>
-  </si>
-  <si>
-    <t>Action, Adventure, Sci-Fi</t>
-  </si>
-  <si>
-    <t>Star Wars: Episode IV - A New Hope</t>
-  </si>
-  <si>
-    <t>La guerra de las galaxias, Star Wars: Episode IV - A New Hope, La guerre des étoiles, Star Wars, Star Wars: Episódio IV - Uma Nova Esperança, Star Wars: Episodio IV - Una nueva esperanza, Stjärnornas krig, A Guerra das Estrelas, A New Hope, Adventures of the Starkiller, Adventures of the Starkiller: Episode 1 - The Star Wars, Chiến Tranh Giữa Các Vì Sao Tập 4: Niềm Hi Vọng Mới, Csillagok háborúja, Guerra nas Estrelas, Guerre stellari, Gwiezdne wojny, Gwiezdne wojny: Część IV - Nowa nadzieja, Hvězdné války, Hviezdne vojny, Hviezdne vojny 4: Nová nádej, Hviezdne vojny IV: Nová nádej, Jang-e setarehha, Krieg der Sterne, La guerra de las estrellas, La guerre des étoiles - Un nouvel espoir, Milkhemet Ha'Kokhavim, O polemos ton astron, O polemos ton astron: Mia nea elpida, Ratovi zvijezda, Ratovi zvijezda IV: Nova nada, Războiul stelelor, Războiul stelelor - Episodul IV: O nouă speranță, Star Wars - De sterrenoorlog, Star Wars - Stjernekrigen, Star Wars IV - Una nuova speranza, Star Wars IV 新たなる希望, Star Wars IV: A New Hope, Star Wars IV: Nová naděje, Star Wars IV: Stjernekrigen, Star Wars IV. - Egy új remény, Star Wars IV. rész - Egy új remény, Star Wars エピソード IV 新たなる希望, Star Wars: A New Hope, Star Wars: Egy új remény, Star Wars: Episode 4 - A New Hope, Star Wars: Episode IV - Eine neue Hoffnung, Star Wars: Episode IV - Et nytt håp, Star Wars: Épisode IV - Un nouvel espoir, Star Wars: Épisode IV, la guerre des étoiles, Star Wars: Episode IV: A New Hope, Star Wars: Episodi IV - Uusi toivo, Star Wars: Episodio IV - Una nuova speranza, Star Wars: la guerra de las galaxias, Star Wars: Osa IV - Uus lootus, Star Wars: Uma Nova Esperança, Star Wars: Una nuova speranza, Star Wars: Uusi toivo, Star Wars: Yeni Bir Umut, Stjärnornas krig: Episod IV - Nytt hopp, Stjernekrigen, Stjörnustríð, Sutā wōzu episōdo 4: Aratanaru kibō, Tähtede sõda, Tähtien sota, Tähtien sota - Special Edition, Tähtien sota: Uusi toivo, The Adventures of Luke Starkiller as Taken from the 'Journal of the Whills': Saga I - Star Wars, The Star Wars, The Star Wars: From the Adventures of Luke Starkiller, The War of the World, Vojna zvezd: Epizoda IV - Novo upanje, Yıldız Savaşları, Yıldız Savaşları: Bölüm IV - Yeni Bir Umut, Yulduzlar jangi: Epizod IV - Yangi Umid, Žvaigždžių karai, Ο πόλεμος των άστρων, Ο Πόλεμος των Άστρων: Επεισόδιο IV - Μια Νέα Ελπίδα, Жұлдызды соғыстар, Жұлдызды соғыстар: Эпизод IV - Жаңа үміт, Звездани ратови: Епизода IV - Нова нада, Звёздные войны, Звёздные войны: Эпизод 4 - Новая надежда, Звёздные войны: Эпизод IV - Новая надежда, Зоряні війни, Зоряні війни: Епізод IV - Нова надія, Междузвездни войни, Междузвездни войни: Епизод IV - Нова Надежда, Ратови звезда: Епизода IV - Нова нада, स्टार वॉर्स, スター・ウォーズ, スター・ウォーズ ／新たなる希望, スター・ウォーズ エピソード4／新たなる希望, 星球大战, 星際大戰</t>
-  </si>
-  <si>
-    <t>Luke Skywalker joins forces with a Jedi Knight, a cocky pilot, a Wookiee and two droids to save the galaxy from the Empire's world-destroying battle station, while also attempting to rescue Princess Leia from the mysterious Darth Vader.</t>
-  </si>
-  <si>
     <t>George Lucas</t>
   </si>
   <si>
@@ -390,7 +399,7 @@
     <t>End Date</t>
   </si>
   <si>
-    <t>Demon Slayer</t>
+    <t>Demon Slayer: Kimetsu no Yaiba</t>
   </si>
   <si>
     <t>鬼滅の刃</t>
@@ -403,7 +412,7 @@
     <t>Koyoharu Gotouge</t>
   </si>
   <si>
-    <t>, Planet Manga, VIZ Media LLC, Viz Media LLC, VIZ Media: SHONEN JUMP</t>
+    <t>VIZ Media LLC, Viz Media LLC, VIZ Media: SHONEN JUMP</t>
   </si>
   <si>
     <t>02-15-2016</t>
@@ -450,9 +459,6 @@
     <t>Tatsuya Endou</t>
   </si>
   <si>
-    <t>, VIZ Media LLC</t>
-  </si>
-  <si>
     <t>11-04-2007</t>
   </si>
   <si>
@@ -465,7 +471,7 @@
     <t>Ahsoka</t>
   </si>
   <si>
-    <t>Ahsoka, Асока, Star Wars: Ahsoka, スター・ウォーズ:アソーカ, 亞蘇卡, 阿蘇嘉</t>
+    <t>Ahsoka, Асока, Star Wars: Ahsoka, スター・ウォーズ:アソーカ, 亞蘇卡, 阿蘇嘉, Ahsoka, Асока, Star Wars: Ahsoka, スター・ウォーズ:アソーカ, 亞蘇卡, 阿蘇嘉</t>
   </si>
   <si>
     <t>After the fall of the Galactic Empire, former Jedi Ahsoka Tano investigates an emerging threat to a vulnerable galaxy.</t>
@@ -474,22 +480,22 @@
     <t>54 m</t>
   </si>
   <si>
-    <t>Dave Filoni, Steph Green, Rick Famuyiwa, Jennifer Getzinger, Geeta Vasant Patel, Peter Ramsey</t>
-  </si>
-  <si>
-    <t>Dave Filoni, George Lucas</t>
-  </si>
-  <si>
-    <t>Disney+, Disney+</t>
-  </si>
-  <si>
-    <t>John Bartnicki, Carrie Beck, Richard Bluff, Jon Favreau, Dave Filoni, Sarah Finn, Karen Gilchrist, John Hampian, Regina Hermosillo, Abbigail Keller, Kathleen Kennedy, R.J. Mino, Kim Richards, Kristen Schreck, Clint Spillers, Heather Wagner-Wang, Colin Wilson, Rachael Lee</t>
-  </si>
-  <si>
-    <t>Golem Creations, Lucasfilm</t>
-  </si>
-  <si>
-    <t>Rosario Dawson, David Tennant, Natasha Liu Bordizzo, Mary Elizabeth Winstead, Ray Stevenson, Ivanna Sakhno, Diana Lee Inosanto, Eman Esfandi, Hayden Christensen, Nican Robinson, Paul Darnell, Dawn Dininger, Evan Whitten, Lars Mikkelsen, Genevieve O'Reilly, Paul Sun-Hyung Lee, Wes Chatham, Jeryl Prescott, Claudia Black, Jane Edwina Seymour, Chris Bartlett, Nelson Lee, Moe Irvin, Chau Naumova, Brendan Wayne, LeeAnna Vamp, Niki Botelho, Ariana Greenblatt, Mark Rolston, Peter Jacobson, Shelby Young, Shakira Barrera, Clancy Brown, Temuera Morrison, Anthony Daniels, Jacqueline Antaramian, Kelly Phelan, Matthew Law, Eisa Davis, Bonnie Wild, Michael Christian Alexander, Kat Kuei Chen, Gina Vitori, P.J. Johal, Daniel Bohman, Helen Sadler, Casey Adams, Anthony Notarile, Justin Sonfield, David W. Collins, Ryan Ryusaki, Vinny Thomas, Tom O'Connell, Michele Weaver, Derek Diaz, Kurt Nelson, Barry Lowin, Peter Clarke, Dmitriy Karas, Greg Kufera, Andrew Goodman, Dave Filoni, Elton Hom</t>
+    <t>Dave Filoni, Steph Green, Rick Famuyiwa, Jennifer Getzinger, Geeta Vasant Patel, Peter Ramsey, Dave Filoni, Steph Green, Rick Famuyiwa, Jennifer Getzinger, Geeta Vasant Patel, Peter Ramsey</t>
+  </si>
+  <si>
+    <t>Dave Filoni, George Lucas, Dave Filoni, George Lucas</t>
+  </si>
+  <si>
+    <t>Disney+, Disney+, Disney+, Disney+</t>
+  </si>
+  <si>
+    <t>John Bartnicki, Carrie Beck, Richard Bluff, Jon Favreau, Dave Filoni, Sarah Finn, Karen Gilchrist, John Hampian, Regina Hermosillo, Abbigail Keller, Kathleen Kennedy, R.J. Mino, Kim Richards, Kristen Schreck, Clint Spillers, Heather Wagner-Wang, Colin Wilson, Rachael Lee, John Bartnicki, Carrie Beck, Richard Bluff, Jon Favreau, Dave Filoni, Sarah Finn, Karen Gilchrist, John Hampian, Regina Hermosillo, Abbigail Keller, Kathleen Kennedy, R.J. Mino, Kim Richards, Kristen Schreck, Clint Spillers, Heather Wagner-Wang, Colin Wilson, Rachael Lee</t>
+  </si>
+  <si>
+    <t>Golem Creations, Lucasfilm, Golem Creations, Lucasfilm</t>
+  </si>
+  <si>
+    <t>Rosario Dawson, David Tennant, Natasha Liu Bordizzo, Mary Elizabeth Winstead, Ray Stevenson, Ivanna Sakhno, Diana Lee Inosanto, Eman Esfandi, Hayden Christensen, Nican Robinson, Paul Darnell, Dawn Dininger, Evan Whitten, Lars Mikkelsen, Genevieve O'Reilly, Paul Sun-Hyung Lee, Wes Chatham, Jeryl Prescott, Claudia Black, Jane Edwina Seymour, Chris Bartlett, Nelson Lee, Moe Irvin, Chau Naumova, Brendan Wayne, LeeAnna Vamp, Niki Botelho, Ariana Greenblatt, Mark Rolston, Peter Jacobson, Shelby Young, Shakira Barrera, Clancy Brown, Temuera Morrison, Anthony Daniels, Jacqueline Antaramian, Kelly Phelan, Matthew Law, Eisa Davis, Bonnie Wild, Michael Christian Alexander, Kat Kuei Chen, Gina Vitori, P.J. Johal, Daniel Bohman, Helen Sadler, Casey Adams, Anthony Notarile, Justin Sonfield, David W. Collins, Ryan Ryusaki, Vinny Thomas, Tom O'Connell, Michele Weaver, Derek Diaz, Kurt Nelson, Barry Lowin, Peter Clarke, Dmitriy Karas, Greg Kufera, Andrew Goodman, Dave Filoni, Elton Hom, Rosario Dawson, David Tennant, Natasha Liu Bordizzo, Mary Elizabeth Winstead, Ray Stevenson, Ivanna Sakhno, Diana Lee Inosanto, Eman Esfandi, Hayden Christensen, Nican Robinson, Paul Darnell, Dawn Dininger, Evan Whitten, Lars Mikkelsen, Genevieve O'Reilly, Paul Sun-Hyung Lee, Wes Chatham, Jeryl Prescott, Claudia Black, Jane Edwina Seymour, Chris Bartlett, Nelson Lee, Moe Irvin, Chau Naumova, Brendan Wayne, LeeAnna Vamp, Niki Botelho, Ariana Greenblatt, Mark Rolston, Peter Jacobson, Shelby Young, Shakira Barrera, Clancy Brown, Temuera Morrison, Anthony Daniels, Jacqueline Antaramian, Kelly Phelan, Matthew Law, Eisa Davis, Bonnie Wild, Michael Christian Alexander, Kat Kuei Chen, Gina Vitori, P.J. Johal, Daniel Bohman, Helen Sadler, Casey Adams, Anthony Notarile, Justin Sonfield, David W. Collins, Ryan Ryusaki, Vinny Thomas, Tom O'Connell, Michele Weaver, Derek Diaz, Kurt Nelson, Barry Lowin, Peter Clarke, Dmitriy Karas, Greg Kufera, Andrew Goodman, Dave Filoni, Elton Hom</t>
   </si>
   <si>
     <t>08-22-2023</t>
@@ -537,31 +543,31 @@
     <t>Secret Invasion</t>
   </si>
   <si>
-    <t>Secret Invasion, Invasión secreta, Invasão Secreta, Jambalaya, Maxfiy bosqin, Tajná invaze, Tajná invázia, Tajna inwazja, Titkos invázió, Μυστική εισβολή, Секретное вторжение, Таємне вторгнення, Тайно нашествие, シークレット・インベージョン, 秘密入侵</t>
+    <t>Secret Invasion, Invasión secreta, Invasão Secreta, Jambalaya, Maxfiy bosqin, Tajná invaze, Tajná invázia, Tajna inwazja, Titkos invázió, Μυστική εισβολή, Секретное вторжение, Таємне вторгнення, Тайно нашествие, シークレット・インベージョン, 秘密入侵, Secret Invasion, Invasión secreta, Invasão Secreta, Jambalaya, Maxfiy bosqin, Tajná invaze, Tajná invázia, Tajna inwazja, Titkos invázió, Μυστική εισβολή, Секретное вторжение, Таємне вторгнення, Тайно нашествие, シークレット・インベージョン, 秘密入侵</t>
   </si>
   <si>
     <t>Fury and Talos try to stop the Skrulls who have infiltrated the highest spheres of the Marvel Universe.</t>
   </si>
   <si>
-    <t>261 m</t>
-  </si>
-  <si>
-    <t>Ali Selim</t>
-  </si>
-  <si>
-    <t>Kyle Bradstreet, Beto Dantas, Jonathan Hirschbein, Matt McRee, Haleema Mirza, Jennifer Muro, Jovan Robinson, Brian Tucker, Michael Bhim, Brant Englestein, Roxanne Paredes</t>
-  </si>
-  <si>
-    <t>Disney+, Disney+, Disney+, Disney+, Disney+, Disney+, Disney+, Disney+, Disney+, Disney+, Hulu</t>
-  </si>
-  <si>
-    <t>Victoria Alonso, Michael Bhim, Jennifer Booth, Kyle Bradstreet, Cait Collins, Louis D'Esposito, Brant Englestein, Kevin Feige, Sarah Finn, Chris Gary, Grainne Godfree, Samuel L. Jackson, Adrian Kelly, Roxanne Paredes, Aaron Rabin, Wendy Riss, Jonathan Schwartz, Ali Selim, Brian Tucker, Cat Vasko, Allana Williams, Brad Winderbaum</t>
-  </si>
-  <si>
-    <t>Marvel Studios, The Walt Disney Company</t>
-  </si>
-  <si>
-    <t>Samuel L. Jackson, Emilia Clarke, Don Cheadle, Kingsley Ben-Adir, Killian Scott, Ben Mendelsohn, Olivia Colman, Charlayne Woodard, Samuel Adewunmi, Katie Finneran, Irmena Chichikova, Dermot Mulroney, Michael Epp, Christopher McDonald, Anna Madeley, Mark Bazeley, Mark Lewis, Martin Freeman, Nisha Aaliya, Uriel Emil, Tony Curran, Seeta Indrani, Christopher Goh, Richard Teverson, Giampiero Judica, Ben Peel, Augustina Seymour, Jack Gouldbourne, Ventsislav Yankov, Cobie Smulders, David Bark-Jones, Richard Dormer, Michael Keogh, Lucy Newman-Williams, Saverio Buono, Andrei Nova, Alasdair Noble, Alex Romashov, Jessica Martenson, Mark Noble, Mihai Arsene, Heidi Niemi, Natallia Bulynia, Harry Burton, Vladimir Kolishkin, Peter Sandys-Clarke, Bebe Massey, Michael McKerracher, Simon Smith, Malcolm James, Nina Anderson, Lydia Depres, Eugenia Caruso, Chiraz Aich, Tom Scurr, James Adler, Anna Wilson-Jones, Irina Kara, Osian Roberts, Tony Metcalfe, Zsuzsa Magyar, O-T Fagbenle, Natasha Patel, Jack Baldwin, Grace Boyle, Joe Macaulay, Daniel Stockton, Paul Huntley-Thomas, Luke J I Smith, Pavel Douglas, Alex Batareanu, Christian Greenway, Michael Amariah, Meya Brumell, Adriana Grigoriev, James Macnaughton, Irena Tyshyna, Juliet Stevenson, Alex Skarbek, Lucas Persaud, Charlotte Baker, Kate Braithwaite, Jeska Pike, Tony McCarthy, Billy Clements, Andy M Milligan, Nathan Hall, Anastasia Zabarchuk, Ruth Clarson, Craig Shorrock, David Evestaff, Jean-Pascal Heynemand, Stephen Samson, Cain Aiden, Kelly Burke, Alphie Hyorth, Jorge Leon, Sushma Sharma, David Vickers, Avinashi Sharma, Marvin Montoute, Boye Cole, Electra Allen, Samuel Winner</t>
+    <t>35 m</t>
+  </si>
+  <si>
+    <t>Ali Selim, Ali Selim</t>
+  </si>
+  <si>
+    <t>Kyle Bradstreet, Beto Dantas, Jonathan Hirschbein, Matt McRee, Haleema Mirza, Jennifer Muro, Jovan Robinson, Brian Tucker, Michael Bhim, Brant Englestein, Roxanne Paredes, Kyle Bradstreet, Beto Dantas, Jonathan Hirschbein, Matt McRee, Haleema Mirza, Jennifer Muro, Jovan Robinson, Brian Tucker, Michael Bhim, Brant Englestein, Roxanne Paredes</t>
+  </si>
+  <si>
+    <t>Disney+, Disney+, Disney+, Disney+, Disney+, Disney+, Disney+, Disney+, Disney+, Disney+, Hulu, Disney+, Disney+, Disney+, Disney+, Disney+, Disney+, Disney+, Disney+, Disney+, Disney+, Hulu</t>
+  </si>
+  <si>
+    <t>Victoria Alonso, Michael Bhim, Jennifer Booth, Kyle Bradstreet, Cait Collins, Louis D'Esposito, Brant Englestein, Kevin Feige, Sarah Finn, Chris Gary, Grainne Godfree, Samuel L. Jackson, Adrian Kelly, Roxanne Paredes, Aaron Rabin, Wendy Riss, Jonathan Schwartz, Ali Selim, Brian Tucker, Cat Vasko, Allana Williams, Brad Winderbaum, Victoria Alonso, Michael Bhim, Jennifer Booth, Kyle Bradstreet, Cait Collins, Louis D'Esposito, Brant Englestein, Kevin Feige, Sarah Finn, Chris Gary, Grainne Godfree, Samuel L. Jackson, Adrian Kelly, Roxanne Paredes, Aaron Rabin, Wendy Riss, Jonathan Schwartz, Ali Selim, Brian Tucker, Cat Vasko, Allana Williams, Brad Winderbaum</t>
+  </si>
+  <si>
+    <t>Marvel Studios, The Walt Disney Company, Marvel Studios, The Walt Disney Company</t>
+  </si>
+  <si>
+    <t>Samuel L. Jackson, Emilia Clarke, Don Cheadle, Kingsley Ben-Adir, Killian Scott, Ben Mendelsohn, Olivia Colman, Charlayne Woodard, Samuel Adewunmi, Katie Finneran, Irmena Chichikova, Dermot Mulroney, Michael Epp, Christopher McDonald, Anna Madeley, Mark Bazeley, Mark Lewis, Martin Freeman, Nisha Aaliya, Uriel Emil, Tony Curran, Seeta Indrani, Christopher Goh, Richard Teverson, Giampiero Judica, Ben Peel, Augustina Seymour, Jack Gouldbourne, Ventsislav Yankov, Cobie Smulders, David Bark-Jones, Richard Dormer, Michael Keogh, Lucy Newman-Williams, Saverio Buono, Andrei Nova, Alasdair Noble, Alex Romashov, Jessica Martenson, Mark Noble, Mihai Arsene, Heidi Niemi, Natallia Bulynia, Harry Burton, Vladimir Kolishkin, Peter Sandys-Clarke, Bebe Massey, Michael McKerracher, Simon Smith, Malcolm James, Nina Anderson, Lydia Depres, Eugenia Caruso, Chiraz Aich, Tom Scurr, James Adler, Anna Wilson-Jones, Irina Kara, Osian Roberts, Tony Metcalfe, Zsuzsa Magyar, O-T Fagbenle, Natasha Patel, Jack Baldwin, Grace Boyle, Joe Macaulay, Daniel Stockton, Paul Huntley-Thomas, Luke J I Smith, Pavel Douglas, Alex Batareanu, Christian Greenway, Michael Amariah, Meya Brumell, Adriana Grigoriev, James Macnaughton, Irena Tyshyna, Juliet Stevenson, Alex Skarbek, Lucas Persaud, Charlotte Baker, Kate Braithwaite, Jeska Pike, Tony McCarthy, Billy Clements, Andy M Milligan, Nathan Hall, Anastasia Zabarchuk, Ruth Clarson, Craig Shorrock, David Evestaff, Jean-Pascal Heynemand, Stephen Samson, Cain Aiden, Kelly Burke, Alphie Hyorth, Jorge Leon, Sushma Sharma, David Vickers, Avinashi Sharma, Marvin Montoute, Boye Cole, Electra Allen, Samuel Winner, Samuel L. Jackson, Emilia Clarke, Don Cheadle, Kingsley Ben-Adir, Killian Scott, Ben Mendelsohn, Olivia Colman, Charlayne Woodard, Samuel Adewunmi, Katie Finneran, Irmena Chichikova, Dermot Mulroney, Michael Epp, Christopher McDonald, Anna Madeley, Mark Bazeley, Mark Lewis, Martin Freeman, Nisha Aaliya, Uriel Emil, Tony Curran, Seeta Indrani, Christopher Goh, Richard Teverson, Giampiero Judica, Ben Peel, Augustina Seymour, Jack Gouldbourne, Ventsislav Yankov, Cobie Smulders, David Bark-Jones, Richard Dormer, Michael Keogh, Lucy Newman-Williams, Saverio Buono, Andrei Nova, Alasdair Noble, Alex Romashov, Jessica Martenson, Mark Noble, Mihai Arsene, Heidi Niemi, Natallia Bulynia, Harry Burton, Vladimir Kolishkin, Peter Sandys-Clarke, Bebe Massey, Michael McKerracher, Simon Smith, Malcolm James, Nina Anderson, Lydia Depres, Eugenia Caruso, Chiraz Aich, Tom Scurr, James Adler, Anna Wilson-Jones, Irina Kara, Osian Roberts, Tony Metcalfe, Zsuzsa Magyar, O-T Fagbenle, Natasha Patel, Jack Baldwin, Grace Boyle, Joe Macaulay, Daniel Stockton, Paul Huntley-Thomas, Luke J I Smith, Pavel Douglas, Alex Batareanu, Christian Greenway, Michael Amariah, Meya Brumell, Adriana Grigoriev, James Macnaughton, Irena Tyshyna, Juliet Stevenson, Alex Skarbek, Lucas Persaud, Charlotte Baker, Kate Braithwaite, Jeska Pike, Tony McCarthy, Billy Clements, Andy M Milligan, Nathan Hall, Anastasia Zabarchuk, Ruth Clarson, Craig Shorrock, David Evestaff, Jean-Pascal Heynemand, Stephen Samson, Cain Aiden, Kelly Burke, Alphie Hyorth, Jorge Leon, Sushma Sharma, David Vickers, Avinashi Sharma, Marvin Montoute, Boye Cole, Electra Allen, Samuel Winner</t>
   </si>
   <si>
     <t>06-21-2023</t>
@@ -1311,7 +1317,7 @@
     <t>Demon Slayer: Kimetsu no Yaiba, Vol. 1</t>
   </si>
   <si>
-    <t>978-1-9747</t>
+    <t>978-1-97470-052-3</t>
   </si>
   <si>
     <t>06-06-2016</t>
@@ -1323,6 +1329,9 @@
     <t>Demon Slayer: Kimetsu no Yaiba, Vol. 2</t>
   </si>
   <si>
+    <t>978-1-97470-053-0</t>
+  </si>
+  <si>
     <t>08-04-2016</t>
   </si>
   <si>
@@ -1332,6 +1341,9 @@
     <t>Demon Slayer: Kimetsu no Yaiba, Vol. 3</t>
   </si>
   <si>
+    <t>978-1-97470-054-7</t>
+  </si>
+  <si>
     <t>10-04-2016</t>
   </si>
   <si>
@@ -1341,6 +1353,9 @@
     <t>Demon Slayer: Kimetsu no Yaiba, Vol. 4</t>
   </si>
   <si>
+    <t>978-1-97470-055-4</t>
+  </si>
+  <si>
     <t>12-02-2016</t>
   </si>
   <si>
@@ -1350,6 +1365,9 @@
     <t>Demon Slayer: Kimetsu no Yaiba, Vol. 5</t>
   </si>
   <si>
+    <t>978-1-97470-056-1</t>
+  </si>
+  <si>
     <t>03-03-2017</t>
   </si>
   <si>
@@ -1359,7 +1377,10 @@
     <t>Demon Slayer: Kimetsu no Yaiba, Vol. 6</t>
   </si>
   <si>
-    <t>05-02-2017</t>
+    <t>978-1-97470-057-8</t>
+  </si>
+  <si>
+    <t>05-07-2019</t>
   </si>
   <si>
     <t>Tanjiro sets out on the path of the Demon Slayer to save his sister and avenge his family!In Taisho-era Japan, Tanjiro Kamado is a kindhearted boy who makes a living selling charcoal. But his peaceful life is shattered when a demon slaughters his entire family. His little sister Nezuko is the only survivor, but she has been transformed into a demon herself! Tanjiro sets out on a dangerous journey to find a way to return his sister to normal and destroy the demon who ruined his life.The members of the Demon Slayer Corps are sworn to destroy demons wherever they find them—but the condition of Tanjiro’s sister, Nezuko, is a problem. What will the Hashira—the leaders of the Demon Slayer Corps—do about Tanjiro protecting his own demonic sister? Meanwhile, Kibutsuji assembles his own minions and intensifies his search for Tanjiro…</t>
@@ -1368,6 +1389,9 @@
     <t>Demon Slayer: Kimetsu no Yaiba, Vol. 7</t>
   </si>
   <si>
+    <t>978-1-97470-441-5</t>
+  </si>
+  <si>
     <t>08-04-2017</t>
   </si>
   <si>
@@ -1377,6 +1401,9 @@
     <t>Demon Slayer: Kimetsu no Yaiba, Vol. 8</t>
   </si>
   <si>
+    <t>978-1-97470-442-2</t>
+  </si>
+  <si>
     <t>10-04-2017</t>
   </si>
   <si>
@@ -1386,6 +1413,9 @@
     <t>Demon Slayer: Kimetsu no Yaiba, Vol. 9</t>
   </si>
   <si>
+    <t>978-1-97470-443-9</t>
+  </si>
+  <si>
     <t>12-04-2017</t>
   </si>
   <si>
@@ -1395,6 +1425,9 @@
     <t>Demon Slayer: Kimetsu no Yaiba, Vol. 10</t>
   </si>
   <si>
+    <t>978-1-97470-455-2</t>
+  </si>
+  <si>
     <t>03-02-2018</t>
   </si>
   <si>
@@ -1404,6 +1437,9 @@
     <t>Demon Slayer: Kimetsu no Yaiba, Vol. 11</t>
   </si>
   <si>
+    <t>978-1-97470-648-8</t>
+  </si>
+  <si>
     <t>06-04-2018</t>
   </si>
   <si>
@@ -1413,6 +1449,9 @@
     <t>Demon Slayer: Kimetsu no Yaiba, Vol. 12</t>
   </si>
   <si>
+    <t>978-1-97471-112-3</t>
+  </si>
+  <si>
     <t>08-03-2018</t>
   </si>
   <si>
@@ -1422,6 +1461,9 @@
     <t>Demon Slayer: Kimetsu no Yaiba, Vol. 13</t>
   </si>
   <si>
+    <t>978-1-97471-113-0</t>
+  </si>
+  <si>
     <t>11-02-2018</t>
   </si>
   <si>
@@ -1431,6 +1473,9 @@
     <t>Demon Slayer: Kimetsu no Yaiba, Vol. 14</t>
   </si>
   <si>
+    <t>978-1-97471-114-7</t>
+  </si>
+  <si>
     <t>01-04-2019</t>
   </si>
   <si>
@@ -1440,6 +1485,9 @@
     <t>Demon Slayer: Kimetsu no Yaiba, Vol. 15</t>
   </si>
   <si>
+    <t>978-1-97471-478-0</t>
+  </si>
+  <si>
     <t>04-04-2019</t>
   </si>
   <si>
@@ -1449,6 +1497,9 @@
     <t>Demon Slayer: Kimetsu no Yaiba, Vol. 16</t>
   </si>
   <si>
+    <t>978-1-97471-477-3</t>
+  </si>
+  <si>
     <t>07-04-2019</t>
   </si>
   <si>
@@ -1458,6 +1509,9 @@
     <t>Demon Slayer: Kimetsu no Yaiba, Vol. 17</t>
   </si>
   <si>
+    <t>978-1-97471-061-4</t>
+  </si>
+  <si>
     <t>10-04-2019</t>
   </si>
   <si>
@@ -1467,6 +1521,9 @@
     <t>Demon Slayer: Kimetsu no Yaiba, Vol. 18</t>
   </si>
   <si>
+    <t>978-1-97471-760-6</t>
+  </si>
+  <si>
     <t>12-04-2019</t>
   </si>
   <si>
@@ -1476,6 +1533,9 @@
     <t>Demon Slayer: Kimetsu no Yaiba, Vol. 19</t>
   </si>
   <si>
+    <t>978-1-97471-811-5</t>
+  </si>
+  <si>
     <t>02-04-2020</t>
   </si>
   <si>
@@ -1485,6 +1545,9 @@
     <t>Demon Slayer: Kimetsu no Yaiba, Vol. 20</t>
   </si>
   <si>
+    <t>978-1-97472-097-2</t>
+  </si>
+  <si>
     <t>05-13-2020</t>
   </si>
   <si>
@@ -1494,6 +1557,9 @@
     <t>Demon Slayer: Kimetsu no Yaiba, Vol. 21</t>
   </si>
   <si>
+    <t>978-1-97472-120-7</t>
+  </si>
+  <si>
     <t>07-03-2020</t>
   </si>
   <si>
@@ -1503,19 +1569,25 @@
     <t>Demon Slayer: Kimetsu no Yaiba, Vol. 22</t>
   </si>
   <si>
+    <t>978-1-97472-341-6</t>
+  </si>
+  <si>
     <t>10-02-2020</t>
   </si>
   <si>
     <t>In Taisho-era Japan, kindhearted Tanjiro Kamado makes a living selling charcoal. But his peaceful life is shattered when a demon slaughters his entire family. His little sister Nezuko is the only survivor, but she has been transformed into a demon herself! Tanjiro sets out on a dangerous journey to find a way to return his sister to normal and destroy the demon who ruined his life.After centuries of preparation and training, the Demon Slayer Corps has come face-to-face with their nemesis, Muzan Kibutsuji. It is a desperate battle and several Demon Slayers have already been killed. Tanjiro himself has engaged Muzan, and, despite giving it everything he has, is taken out of the fight! Although severely injured and near death, he sees a vision of his ancestor that may hold the key to finally destroying Muzan! Can Tanjiro recover enough strength to fight Muzan to the finish?</t>
   </si>
   <si>
-    <t>Demon Slayer: Kimetsu no Yaiba, Vol. 23</t>
+    <t>Demon Slayer: Kimetsu no Yaiba, Vol. 23: Life Shining Across The Years</t>
+  </si>
+  <si>
+    <t>B099WFVWKT</t>
   </si>
   <si>
     <t>12-04-2020</t>
   </si>
   <si>
-    <t>In Taisho-era Japan, kindhearted Tanjiro Kamado makes a living selling charcoal. But his peaceful life is shattered when a demon slaughters his entire family. His little sister Nezuko is the only survivor, but she has been transformed into a demon herself! Tanjiro sets out on a dangerous journey to find a way to return his sister to normal and destroy the demon who ruined his life.In an epic confrontation, Tanjiro and his fellow Demon Slayers have fought on through the night, suffering terrible losses against the King of Demons, Muzan Kibutsuji. Dawn is breaking soon, and if they can keep Muzan at bay just a little longer, it will be the end of the centuries-long struggle. But Muzan, who will stop at nothing to destroy the Demon Slayers, unleashes his most terrible powers. If he can’t defeat the Demon Slayers, he may be able to cause them to destroy themselves from within. All fates and destinies will be decided as the sun begins to rise…</t>
+    <t>In an epic confrontation, Tanjiro and his fellow Demon Slayers have fought on through the night, suffering terrible losses against the King of Demons, Muzan Kibutsuji. Dawn is breaking soon, and if they can keep Muzan at bay just a little longer, it will be the end of the centuries-long struggle. But Muzan, who will stop at nothing to destroy the Demon Slayers, unleashes his most terrible powers. If he can’t defeat the Demon Slayers, he may be able to cause them to destroy themselves from within. All fates and destinies will be decided as the sun begins to rise…</t>
   </si>
   <si>
     <t>Season</t>
@@ -1530,12 +1602,18 @@
     <t>Romantic Killer, Vol. 1</t>
   </si>
   <si>
+    <t>978-1-97473-469-6</t>
+  </si>
+  <si>
     <t>High schooler Anzu Hoshino has a great life. Every day she plays video games, pigs out on snacks, and pets her beloved cat. But this blissful existence is turned into a confusing mess when a magical creature transports her to an altered reality bereft of her favorite things. Now she’s stuck with hot guys instead!How can she possibly survive in such an awful world?!Anzu must play along in this altered reality before she can return to her normal life, so she begrudgingly makes friends with Tsukasa Kazuki. He unfortunately happens to be one of the hottest and most popular guys at school, and what’s worse, she realizes that he might not even be that bad of a person!</t>
   </si>
   <si>
     <t>Romantic Killer, Vol. 2</t>
   </si>
   <si>
+    <t>978-1-97473-507-5</t>
+  </si>
+  <si>
     <t>03-04-2020</t>
   </si>
   <si>
@@ -1545,6 +1623,9 @@
     <t>Romantic Killer, Vol. 3</t>
   </si>
   <si>
+    <t>978-1-97473-508-2</t>
+  </si>
+  <si>
     <t>08-04-2020</t>
   </si>
   <si>
@@ -1554,6 +1635,9 @@
     <t>Romantic Killer, Vol. 4</t>
   </si>
   <si>
+    <t>978-1-97473-509-9</t>
+  </si>
+  <si>
     <t>09-04-2020</t>
   </si>
   <si>
@@ -1567,24 +1651,6 @@
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>Tista, Vol. 1</t>
-  </si>
-  <si>
-    <t>06-04-2008</t>
-  </si>
-  <si>
-    <t>Tista leads a dual life as an assassin and a university student. What price will she pay to save the people she loves?Tista, a.k.a. Sister Militia, the Grim Reaper of New York City, leads a dual life as a university student studying to be a teacher. With extraordinary eyesight allowing her to make shots at exceedingly long range, she has come to be feared by the criminal underground. Tista knows she is doomed, but can her feelings for a young man she just met bring her back from the abyss? And what will she do if he finds out who she really is?In New York City, the NYPD struggles to track down a serial killer known as Sister Militia, who has been targeting mobsters and other criminals in the Big Apple. No one knows who Sister Militia really is except a few residents of a Catholic orphanage. Her name is Tista…</t>
-  </si>
-  <si>
-    <t>Tista, Vol. 2</t>
-  </si>
-  <si>
-    <t>09-04-2008</t>
-  </si>
-  <si>
-    <t>Tista leads a dual life as an assassin and a university student. What price will she pay to save the people she loves?In New York City, the NYPD struggles to track down a serial killer known as Sister Militia, who has been targeting mobsters and other criminals in the Big Apple. No one knows who Sister Militia really is except a few residents of a Catholic orphanage. Her name is Tista…Tista’s activities as the grim reaper of New York City have drawn the attention of the FBI. Agent Snow makes contact with Arty and begins to investigate. Meanwhile, Tista continues to bury her emotions in order to complete her deadly missions. But when the organization she serves issues a particularly cruel order, can she carry it out?</t>
   </si>
   <si>
     <t>03-30-2023</t>
@@ -2218,7 +2284,7 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2230,7 +2296,7 @@
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -2244,10 +2310,10 @@
     </row>
     <row r="2" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>15</v>
@@ -2270,10 +2336,10 @@
     </row>
     <row r="3" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>15</v>
@@ -2296,10 +2362,10 @@
     </row>
     <row r="4" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>15</v>
@@ -2322,10 +2388,10 @@
     </row>
     <row r="5" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>15</v>
@@ -2348,10 +2414,10 @@
     </row>
     <row r="6" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>15</v>
@@ -2374,10 +2440,10 @@
     </row>
     <row r="7" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>15</v>
@@ -2400,10 +2466,10 @@
     </row>
     <row r="8" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>15</v>
@@ -2426,10 +2492,10 @@
     </row>
     <row r="9" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>15</v>
@@ -2452,10 +2518,10 @@
     </row>
     <row r="10" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>15</v>
@@ -2478,10 +2544,10 @@
     </row>
     <row r="11" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>15</v>
@@ -2504,10 +2570,10 @@
     </row>
     <row r="12" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>15</v>
@@ -2530,10 +2596,10 @@
     </row>
     <row r="13" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>15</v>
@@ -2556,10 +2622,10 @@
     </row>
     <row r="14" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>15</v>
@@ -2582,10 +2648,10 @@
     </row>
     <row r="15" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>15</v>
@@ -2608,10 +2674,10 @@
     </row>
     <row r="16" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>15</v>
@@ -2634,10 +2700,10 @@
     </row>
     <row r="17" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>15</v>
@@ -2660,10 +2726,10 @@
     </row>
     <row r="18" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>15</v>
@@ -2686,10 +2752,10 @@
     </row>
     <row r="19" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>15</v>
@@ -2712,10 +2778,10 @@
     </row>
     <row r="20" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>15</v>
@@ -2738,10 +2804,10 @@
     </row>
     <row r="21" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>15</v>
@@ -2764,10 +2830,10 @@
     </row>
     <row r="22" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>15</v>
@@ -2790,10 +2856,10 @@
     </row>
     <row r="23" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>15</v>
@@ -2816,10 +2882,10 @@
     </row>
     <row r="24" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>15</v>
@@ -2842,10 +2908,10 @@
     </row>
     <row r="25" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>15</v>
@@ -2868,10 +2934,10 @@
     </row>
     <row r="26" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>15</v>
@@ -2894,10 +2960,10 @@
     </row>
     <row r="27" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>15</v>
@@ -2920,10 +2986,10 @@
     </row>
     <row r="28" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>15</v>
@@ -2946,10 +3012,10 @@
     </row>
     <row r="29" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>15</v>
@@ -2972,10 +3038,10 @@
     </row>
     <row r="30" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>15</v>
@@ -2998,10 +3064,10 @@
     </row>
     <row r="31" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>15</v>
@@ -3024,10 +3090,10 @@
     </row>
     <row r="32" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>15</v>
@@ -3050,10 +3116,10 @@
     </row>
     <row r="33" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>15</v>
@@ -3076,10 +3142,10 @@
     </row>
     <row r="34" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>15</v>
@@ -3102,10 +3168,10 @@
     </row>
     <row r="35" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>15</v>
@@ -3128,10 +3194,10 @@
     </row>
     <row r="36" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>15</v>
@@ -3154,10 +3220,10 @@
     </row>
     <row r="37" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>15</v>
@@ -3180,10 +3246,10 @@
     </row>
     <row r="38" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>15</v>
@@ -3206,10 +3272,10 @@
     </row>
     <row r="39" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>15</v>
@@ -3232,10 +3298,10 @@
     </row>
     <row r="40" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>15</v>
@@ -3258,16 +3324,16 @@
     </row>
     <row r="41" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>498</v>
+        <v>522</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>426</v>
+        <v>523</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>478</v>
+        <v>497</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>15</v>
@@ -3276,7 +3342,7 @@
         <v>15</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>499</v>
+        <v>524</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>15</v>
@@ -3284,16 +3350,16 @@
     </row>
     <row r="42" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>500</v>
+        <v>525</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>426</v>
+        <v>526</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>501</v>
+        <v>527</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>15</v>
@@ -3302,7 +3368,7 @@
         <v>15</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>502</v>
+        <v>528</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>15</v>
@@ -3310,16 +3376,16 @@
     </row>
     <row r="43" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>503</v>
+        <v>529</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>426</v>
+        <v>530</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>504</v>
+        <v>531</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>15</v>
@@ -3328,7 +3394,7 @@
         <v>15</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>505</v>
+        <v>532</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>15</v>
@@ -3336,16 +3402,16 @@
     </row>
     <row r="44" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>506</v>
+        <v>533</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>426</v>
+        <v>534</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>507</v>
+        <v>535</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>15</v>
@@ -3354,7 +3420,7 @@
         <v>15</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>508</v>
+        <v>536</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>15</v>
@@ -3389,28 +3455,28 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
@@ -3418,7 +3484,7 @@
     </row>
     <row r="2" ht="75" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>15</v>
@@ -3439,7 +3505,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>15</v>
@@ -3447,7 +3513,7 @@
     </row>
     <row r="3" ht="75" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>15</v>
@@ -3468,7 +3534,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>15</v>
@@ -3476,7 +3542,7 @@
     </row>
     <row r="4" ht="75" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>15</v>
@@ -3497,7 +3563,7 @@
         <v>3</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>15</v>
@@ -3505,7 +3571,7 @@
     </row>
     <row r="5" ht="75" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>15</v>
@@ -3526,7 +3592,7 @@
         <v>4</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>15</v>
@@ -3534,7 +3600,7 @@
     </row>
     <row r="6" ht="75" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>15</v>
@@ -3555,7 +3621,7 @@
         <v>5</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>15</v>
@@ -3563,7 +3629,7 @@
     </row>
     <row r="7" ht="75" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>15</v>
@@ -3584,7 +3650,7 @@
         <v>6</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>15</v>
@@ -3620,31 +3686,31 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>3</v>
@@ -3652,16 +3718,16 @@
     </row>
     <row r="2" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>509</v>
+        <v>537</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>510</v>
+        <v>538</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>15</v>
@@ -3673,10 +3739,10 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>511</v>
+        <v>539</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>510</v>
+        <v>538</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>15</v>
@@ -3709,7 +3775,7 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3721,7 +3787,7 @@
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -3735,10 +3801,10 @@
     </row>
     <row r="2" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>15</v>
@@ -3761,10 +3827,10 @@
     </row>
     <row r="3" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>15</v>
@@ -3787,10 +3853,10 @@
     </row>
     <row r="4" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>15</v>
@@ -3813,10 +3879,10 @@
     </row>
     <row r="5" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>15</v>
@@ -3839,10 +3905,10 @@
     </row>
     <row r="6" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>15</v>
@@ -3865,10 +3931,10 @@
     </row>
     <row r="7" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>15</v>
@@ -3891,10 +3957,10 @@
     </row>
     <row r="8" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>15</v>
@@ -3917,10 +3983,10 @@
     </row>
     <row r="9" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>15</v>
@@ -3943,10 +4009,10 @@
     </row>
     <row r="10" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>15</v>
@@ -3969,16 +4035,16 @@
     </row>
     <row r="11" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>512</v>
+        <v>15</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>426</v>
+        <v>15</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>513</v>
+        <v>15</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>15</v>
@@ -3987,7 +4053,7 @@
         <v>15</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>514</v>
+        <v>15</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>15</v>
@@ -3995,16 +4061,16 @@
     </row>
     <row r="12" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>515</v>
+        <v>15</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>426</v>
+        <v>15</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>516</v>
+        <v>15</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>15</v>
@@ -4013,7 +4079,7 @@
         <v>15</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>517</v>
+        <v>15</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>15</v>
@@ -4049,31 +4115,31 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>3</v>
@@ -4081,16 +4147,16 @@
     </row>
     <row r="2" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>518</v>
+        <v>540</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>15</v>
@@ -4102,10 +4168,10 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>15</v>
@@ -4113,16 +4179,16 @@
     </row>
     <row r="3" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>518</v>
+        <v>540</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>15</v>
@@ -4134,10 +4200,10 @@
         <v>15</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>15</v>
@@ -4145,16 +4211,16 @@
     </row>
     <row r="4" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>518</v>
+        <v>540</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>15</v>
@@ -4166,10 +4232,10 @@
         <v>15</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>15</v>
@@ -4177,16 +4243,16 @@
     </row>
     <row r="5" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>518</v>
+        <v>540</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>15</v>
@@ -4198,10 +4264,10 @@
         <v>15</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>15</v>
@@ -4209,16 +4275,16 @@
     </row>
     <row r="6" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>518</v>
+        <v>540</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>15</v>
@@ -4230,10 +4296,10 @@
         <v>15</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>15</v>
@@ -4241,16 +4307,16 @@
     </row>
     <row r="7" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>518</v>
+        <v>540</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>15</v>
@@ -4262,10 +4328,10 @@
         <v>15</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>15</v>
@@ -4273,16 +4339,16 @@
     </row>
     <row r="8" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>518</v>
+        <v>540</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>15</v>
@@ -4294,10 +4360,10 @@
         <v>15</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>15</v>
@@ -4305,16 +4371,16 @@
     </row>
     <row r="9" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>518</v>
+        <v>540</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>15</v>
@@ -4326,10 +4392,10 @@
         <v>15</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>15</v>
@@ -4337,16 +4403,16 @@
     </row>
     <row r="10" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>518</v>
+        <v>540</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>15</v>
@@ -4358,10 +4424,10 @@
         <v>15</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>497</v>
+        <v>521</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>15</v>
@@ -4369,16 +4435,16 @@
     </row>
     <row r="11" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>518</v>
+        <v>540</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>15</v>
@@ -4393,7 +4459,7 @@
         <v>10</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>15</v>
@@ -4401,16 +4467,16 @@
     </row>
     <row r="12" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>518</v>
+        <v>540</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>15</v>
@@ -4425,7 +4491,7 @@
         <v>11</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>15</v>
@@ -4433,16 +4499,16 @@
     </row>
     <row r="13" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>518</v>
+        <v>540</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>15</v>
@@ -4457,7 +4523,7 @@
         <v>12</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>15</v>
@@ -4465,16 +4531,16 @@
     </row>
     <row r="14" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>518</v>
+        <v>540</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>15</v>
@@ -4489,7 +4555,7 @@
         <v>13</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>519</v>
+        <v>541</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>15</v>
@@ -4598,21 +4664,21 @@
         <v>53</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" ht="75" customHeight="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>15</v>
@@ -4621,39 +4687,39 @@
         <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" ht="75" customHeight="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>15</v>
@@ -4662,31 +4728,31 @@
         <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -4721,7 +4787,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -4730,43 +4796,43 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>12</v>
@@ -4774,10 +4840,10 @@
     </row>
     <row r="2" ht="75" customHeight="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>15</v>
@@ -4786,19 +4852,19 @@
         <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>15</v>
@@ -4807,33 +4873,33 @@
         <v>15</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" ht="75" customHeight="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>15</v>
@@ -4842,19 +4908,19 @@
         <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>15</v>
@@ -4863,33 +4929,33 @@
         <v>15</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" ht="75" customHeight="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>15</v>
@@ -4898,19 +4964,19 @@
         <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>15</v>
@@ -4919,25 +4985,25 @@
         <v>15</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -4986,22 +5052,22 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>12</v>
@@ -5009,10 +5075,10 @@
     </row>
     <row r="2" ht="75" customHeight="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>15</v>
@@ -5021,16 +5087,16 @@
         <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>15</v>
@@ -5039,21 +5105,21 @@
         <v>15</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" ht="75" customHeight="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>15</v>
@@ -5062,16 +5128,16 @@
         <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>15</v>
@@ -5080,10 +5146,10 @@
         <v>15</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>36</v>
@@ -5091,10 +5157,10 @@
     </row>
     <row r="4" ht="75" customHeight="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>15</v>
@@ -5103,16 +5169,16 @@
         <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>139</v>
+        <v>15</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>15</v>
@@ -5121,18 +5187,18 @@
         <v>15</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" location="#'Manga-DemonSlayer'!A2"/>
+    <hyperlink ref="A2" r:id="rId1" location="#'Manga-DemonSlayer-KimetsuNoYaib'!A2"/>
     <hyperlink ref="A3" r:id="rId2" location="#'Manga-RomanticKiller'!A2"/>
     <hyperlink ref="A4" r:id="rId3" location="#'Manga-Tista'!A2"/>
   </hyperlinks>
@@ -5167,7 +5233,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -5176,37 +5242,37 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>11</v>
@@ -5217,10 +5283,10 @@
     </row>
     <row r="2" ht="75" customHeight="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>15</v>
@@ -5229,19 +5295,19 @@
         <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>15</v>
@@ -5250,30 +5316,30 @@
         <v>15</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" ht="75" customHeight="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>15</v>
@@ -5282,19 +5348,19 @@
         <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>15</v>
@@ -5303,30 +5369,30 @@
         <v>15</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" ht="75" customHeight="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>15</v>
@@ -5335,19 +5401,19 @@
         <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>15</v>
@@ -5356,22 +5422,22 @@
         <v>15</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -5408,28 +5474,28 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
@@ -5437,7 +5503,7 @@
     </row>
     <row r="2" ht="75" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>15</v>
@@ -5458,7 +5524,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>15</v>
@@ -5466,7 +5532,7 @@
     </row>
     <row r="3" ht="75" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>15</v>
@@ -5487,7 +5553,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>15</v>
@@ -5495,7 +5561,7 @@
     </row>
     <row r="4" ht="75" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>15</v>
@@ -5516,7 +5582,7 @@
         <v>3</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>15</v>
@@ -5524,7 +5590,7 @@
     </row>
     <row r="5" ht="75" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>15</v>
@@ -5545,7 +5611,7 @@
         <v>4</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>15</v>
@@ -5553,7 +5619,7 @@
     </row>
     <row r="6" ht="75" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>15</v>
@@ -5574,7 +5640,7 @@
         <v>5</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>15</v>
@@ -5582,7 +5648,7 @@
     </row>
     <row r="7" ht="75" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>15</v>
@@ -5603,7 +5669,7 @@
         <v>6</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>15</v>
@@ -5611,7 +5677,7 @@
     </row>
     <row r="8" ht="75" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>15</v>
@@ -5632,7 +5698,7 @@
         <v>7</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>15</v>
@@ -5640,7 +5706,7 @@
     </row>
     <row r="9" ht="75" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>15</v>
@@ -5661,7 +5727,7 @@
         <v>8</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>15</v>
@@ -5696,28 +5762,28 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
@@ -5725,7 +5791,7 @@
     </row>
     <row r="2" ht="75" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>15</v>
@@ -5743,10 +5809,10 @@
         <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>15</v>
@@ -5754,7 +5820,7 @@
     </row>
     <row r="3" ht="75" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>15</v>
@@ -5772,10 +5838,10 @@
         <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>15</v>
@@ -5783,7 +5849,7 @@
     </row>
     <row r="4" ht="75" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>15</v>
@@ -5801,10 +5867,10 @@
         <v>15</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>15</v>
@@ -5812,7 +5878,7 @@
     </row>
     <row r="5" ht="75" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>15</v>
@@ -5830,10 +5896,10 @@
         <v>15</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>15</v>
@@ -5841,7 +5907,7 @@
     </row>
     <row r="6" ht="75" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>15</v>
@@ -5859,10 +5925,10 @@
         <v>15</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>15</v>
@@ -5870,7 +5936,7 @@
     </row>
     <row r="7" ht="75" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>15</v>
@@ -5888,10 +5954,10 @@
         <v>15</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>15</v>
@@ -5899,7 +5965,7 @@
     </row>
     <row r="8" ht="75" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>15</v>
@@ -5917,10 +5983,10 @@
         <v>15</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>15</v>
@@ -5928,7 +5994,7 @@
     </row>
     <row r="9" ht="75" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>15</v>
@@ -5946,10 +6012,10 @@
         <v>15</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>15</v>
@@ -5957,7 +6023,7 @@
     </row>
     <row r="10" ht="75" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>15</v>
@@ -5975,10 +6041,10 @@
         <v>15</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>15</v>
@@ -5986,7 +6052,7 @@
     </row>
     <row r="11" ht="75" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>15</v>
@@ -6007,7 +6073,7 @@
         <v>10</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>15</v>
@@ -6015,7 +6081,7 @@
     </row>
     <row r="12" ht="75" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>15</v>
@@ -6036,7 +6102,7 @@
         <v>11</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>15</v>
@@ -6044,7 +6110,7 @@
     </row>
     <row r="13" ht="75" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>15</v>
@@ -6065,7 +6131,7 @@
         <v>12</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>15</v>
@@ -6098,7 +6164,7 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -6110,7 +6176,7 @@
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -6124,10 +6190,10 @@
     </row>
     <row r="2" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>15</v>
@@ -6150,10 +6216,10 @@
     </row>
     <row r="3" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>15</v>
@@ -6176,10 +6242,10 @@
     </row>
     <row r="4" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>15</v>
@@ -6202,10 +6268,10 @@
     </row>
     <row r="5" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>15</v>
@@ -6228,10 +6294,10 @@
     </row>
     <row r="6" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>15</v>
@@ -6254,10 +6320,10 @@
     </row>
     <row r="7" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>15</v>
@@ -6280,10 +6346,10 @@
     </row>
     <row r="8" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>15</v>
@@ -6306,10 +6372,10 @@
     </row>
     <row r="9" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>15</v>
@@ -6332,10 +6398,10 @@
     </row>
     <row r="10" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>15</v>
@@ -6358,10 +6424,10 @@
     </row>
     <row r="11" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>15</v>
@@ -6384,10 +6450,10 @@
     </row>
     <row r="12" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>15</v>
@@ -6410,10 +6476,10 @@
     </row>
     <row r="13" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>15</v>
@@ -6436,10 +6502,10 @@
     </row>
     <row r="14" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>15</v>
@@ -6462,10 +6528,10 @@
     </row>
     <row r="15" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>15</v>
@@ -6488,10 +6554,10 @@
     </row>
     <row r="16" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>15</v>
@@ -6514,10 +6580,10 @@
     </row>
     <row r="17" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>15</v>
@@ -6540,10 +6606,10 @@
     </row>
     <row r="18" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>15</v>
@@ -6566,10 +6632,10 @@
     </row>
     <row r="19" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>15</v>
@@ -6592,10 +6658,10 @@
     </row>
     <row r="20" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>15</v>
@@ -6618,10 +6684,10 @@
     </row>
     <row r="21" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>15</v>
@@ -6644,10 +6710,10 @@
     </row>
     <row r="22" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>15</v>
@@ -6670,10 +6736,10 @@
     </row>
     <row r="23" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>15</v>
@@ -6696,10 +6762,10 @@
     </row>
     <row r="24" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>15</v>
@@ -6722,10 +6788,10 @@
     </row>
     <row r="25" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>15</v>
@@ -6748,10 +6814,10 @@
     </row>
     <row r="26" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>15</v>
@@ -6774,10 +6840,10 @@
     </row>
     <row r="27" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>15</v>
@@ -6800,10 +6866,10 @@
     </row>
     <row r="28" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>15</v>
@@ -6826,10 +6892,10 @@
     </row>
     <row r="29" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>15</v>
@@ -6852,10 +6918,10 @@
     </row>
     <row r="30" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>15</v>
@@ -6878,10 +6944,10 @@
     </row>
     <row r="31" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>15</v>
@@ -6904,10 +6970,10 @@
     </row>
     <row r="32" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>15</v>
@@ -6930,10 +6996,10 @@
     </row>
     <row r="33" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>15</v>
@@ -6956,10 +7022,10 @@
     </row>
     <row r="34" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>15</v>
@@ -6982,10 +7048,10 @@
     </row>
     <row r="35" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>15</v>
@@ -7008,10 +7074,10 @@
     </row>
     <row r="36" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>15</v>
@@ -7034,10 +7100,10 @@
     </row>
     <row r="37" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>15</v>
@@ -7060,10 +7126,10 @@
     </row>
     <row r="38" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>15</v>
@@ -7086,10 +7152,10 @@
     </row>
     <row r="39" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>15</v>
@@ -7112,10 +7178,10 @@
     </row>
     <row r="40" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>15</v>
@@ -7138,10 +7204,10 @@
     </row>
     <row r="41" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>15</v>
@@ -7164,10 +7230,10 @@
     </row>
     <row r="42" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>15</v>
@@ -7190,10 +7256,10 @@
     </row>
     <row r="43" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>15</v>
@@ -7216,10 +7282,10 @@
     </row>
     <row r="44" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>15</v>
@@ -7242,10 +7308,10 @@
     </row>
     <row r="45" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>15</v>
@@ -7268,10 +7334,10 @@
     </row>
     <row r="46" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>15</v>
@@ -7294,10 +7360,10 @@
     </row>
     <row r="47" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>15</v>
@@ -7320,10 +7386,10 @@
     </row>
     <row r="48" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>15</v>
@@ -7346,10 +7412,10 @@
     </row>
     <row r="49" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>15</v>
@@ -7372,10 +7438,10 @@
     </row>
     <row r="50" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>15</v>
@@ -7398,10 +7464,10 @@
     </row>
     <row r="51" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>15</v>
@@ -7424,10 +7490,10 @@
     </row>
     <row r="52" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>15</v>
@@ -7450,10 +7516,10 @@
     </row>
     <row r="53" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>15</v>
@@ -7476,10 +7542,10 @@
     </row>
     <row r="54" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>15</v>
@@ -7502,10 +7568,10 @@
     </row>
     <row r="55" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>15</v>
@@ -7528,10 +7594,10 @@
     </row>
     <row r="56" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>15</v>
@@ -7554,10 +7620,10 @@
     </row>
     <row r="57" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>15</v>
@@ -7580,10 +7646,10 @@
     </row>
     <row r="58" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>15</v>
@@ -7606,10 +7672,10 @@
     </row>
     <row r="59" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>15</v>
@@ -7632,10 +7698,10 @@
     </row>
     <row r="60" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>15</v>
@@ -7658,10 +7724,10 @@
     </row>
     <row r="61" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>15</v>
@@ -7684,10 +7750,10 @@
     </row>
     <row r="62" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>15</v>
@@ -7710,10 +7776,10 @@
     </row>
     <row r="63" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>15</v>
@@ -7736,10 +7802,10 @@
     </row>
     <row r="64" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>15</v>
@@ -7762,10 +7828,10 @@
     </row>
     <row r="65" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>15</v>
@@ -7788,10 +7854,10 @@
     </row>
     <row r="66" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>15</v>
@@ -7814,10 +7880,10 @@
     </row>
     <row r="67" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>15</v>
@@ -7840,10 +7906,10 @@
     </row>
     <row r="68" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>15</v>
@@ -7866,10 +7932,10 @@
     </row>
     <row r="69" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>15</v>
@@ -7892,10 +7958,10 @@
     </row>
     <row r="70" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>15</v>
@@ -7918,10 +7984,10 @@
     </row>
     <row r="71" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>15</v>
@@ -7944,10 +8010,10 @@
     </row>
     <row r="72" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>15</v>
@@ -7970,10 +8036,10 @@
     </row>
     <row r="73" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>15</v>
@@ -7996,10 +8062,10 @@
     </row>
     <row r="74" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>15</v>
@@ -8022,10 +8088,10 @@
     </row>
     <row r="75" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>15</v>
@@ -8048,10 +8114,10 @@
     </row>
     <row r="76" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>15</v>
@@ -8074,10 +8140,10 @@
     </row>
     <row r="77" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>15</v>
@@ -8100,10 +8166,10 @@
     </row>
     <row r="78" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>15</v>
@@ -8126,10 +8192,10 @@
     </row>
     <row r="79" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>15</v>
@@ -8152,10 +8218,10 @@
     </row>
     <row r="80" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>15</v>
@@ -8178,10 +8244,10 @@
     </row>
     <row r="81" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>15</v>
@@ -8204,10 +8270,10 @@
     </row>
     <row r="82" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>15</v>
@@ -8230,10 +8296,10 @@
     </row>
     <row r="83" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>15</v>
@@ -8256,10 +8322,10 @@
     </row>
     <row r="84" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>15</v>
@@ -8282,10 +8348,10 @@
     </row>
     <row r="85" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>15</v>
@@ -8308,10 +8374,10 @@
     </row>
     <row r="86" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>15</v>
@@ -8334,10 +8400,10 @@
     </row>
     <row r="87" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>15</v>
@@ -8360,10 +8426,10 @@
     </row>
     <row r="88" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>15</v>
@@ -8386,10 +8452,10 @@
     </row>
     <row r="89" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>15</v>
@@ -8412,10 +8478,10 @@
     </row>
     <row r="90" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>15</v>
@@ -8438,10 +8504,10 @@
     </row>
     <row r="91" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>15</v>
@@ -8464,10 +8530,10 @@
     </row>
     <row r="92" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>15</v>
@@ -8490,10 +8556,10 @@
     </row>
     <row r="93" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>15</v>
@@ -8516,10 +8582,10 @@
     </row>
     <row r="94" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>15</v>
@@ -8542,10 +8608,10 @@
     </row>
     <row r="95" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>15</v>
@@ -8568,10 +8634,10 @@
     </row>
     <row r="96" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>15</v>
@@ -8594,10 +8660,10 @@
     </row>
     <row r="97" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>15</v>
@@ -8620,10 +8686,10 @@
     </row>
     <row r="98" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>15</v>
@@ -8646,10 +8712,10 @@
     </row>
     <row r="99" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>15</v>
@@ -8672,10 +8738,10 @@
     </row>
     <row r="100" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>15</v>
@@ -8698,10 +8764,10 @@
     </row>
     <row r="101" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>15</v>
@@ -8724,10 +8790,10 @@
     </row>
     <row r="102" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>15</v>
@@ -8750,10 +8816,10 @@
     </row>
     <row r="103" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>15</v>
@@ -8776,10 +8842,10 @@
     </row>
     <row r="104" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>15</v>
@@ -8802,10 +8868,10 @@
     </row>
     <row r="105" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>15</v>
@@ -8828,10 +8894,10 @@
     </row>
     <row r="106" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>15</v>
@@ -8854,10 +8920,10 @@
     </row>
     <row r="107" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>15</v>
@@ -8880,10 +8946,10 @@
     </row>
     <row r="108" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>15</v>
@@ -8906,10 +8972,10 @@
     </row>
     <row r="109" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>15</v>
@@ -8932,10 +8998,10 @@
     </row>
     <row r="110" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>15</v>
@@ -8958,10 +9024,10 @@
     </row>
     <row r="111" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>15</v>
@@ -8984,10 +9050,10 @@
     </row>
     <row r="112" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>15</v>
@@ -9010,10 +9076,10 @@
     </row>
     <row r="113" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>15</v>
@@ -9036,10 +9102,10 @@
     </row>
     <row r="114" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>15</v>
@@ -9062,10 +9128,10 @@
     </row>
     <row r="115" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>15</v>
@@ -9088,10 +9154,10 @@
     </row>
     <row r="116" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>15</v>
@@ -9114,10 +9180,10 @@
     </row>
     <row r="117" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>15</v>
@@ -9140,10 +9206,10 @@
     </row>
     <row r="118" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>15</v>
@@ -9166,10 +9232,10 @@
     </row>
     <row r="119" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>15</v>
@@ -9192,10 +9258,10 @@
     </row>
     <row r="120" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>15</v>
@@ -9218,10 +9284,10 @@
     </row>
     <row r="121" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>15</v>
@@ -9244,10 +9310,10 @@
     </row>
     <row r="122" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>15</v>
@@ -9270,10 +9336,10 @@
     </row>
     <row r="123" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>15</v>
@@ -9296,10 +9362,10 @@
     </row>
     <row r="124" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>15</v>
@@ -9322,10 +9388,10 @@
     </row>
     <row r="125" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C125" s="4" t="s">
         <v>15</v>
@@ -9348,10 +9414,10 @@
     </row>
     <row r="126" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>15</v>
@@ -9374,10 +9440,10 @@
     </row>
     <row r="127" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>15</v>
@@ -9400,10 +9466,10 @@
     </row>
     <row r="128" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>15</v>
@@ -9426,10 +9492,10 @@
     </row>
     <row r="129" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>15</v>
@@ -9452,10 +9518,10 @@
     </row>
     <row r="130" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>15</v>
@@ -9478,10 +9544,10 @@
     </row>
     <row r="131" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>15</v>
@@ -9504,10 +9570,10 @@
     </row>
     <row r="132" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>15</v>
@@ -9530,10 +9596,10 @@
     </row>
     <row r="133" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>15</v>
@@ -9556,10 +9622,10 @@
     </row>
     <row r="134" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>15</v>
@@ -9582,10 +9648,10 @@
     </row>
     <row r="135" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>15</v>
@@ -9608,10 +9674,10 @@
     </row>
     <row r="136" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>15</v>
@@ -9634,10 +9700,10 @@
     </row>
     <row r="137" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C137" s="4" t="s">
         <v>15</v>
@@ -9660,10 +9726,10 @@
     </row>
     <row r="138" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>15</v>
@@ -9686,10 +9752,10 @@
     </row>
     <row r="139" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>15</v>
@@ -9712,10 +9778,10 @@
     </row>
     <row r="140" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>15</v>
@@ -9738,10 +9804,10 @@
     </row>
     <row r="141" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>15</v>
@@ -9764,10 +9830,10 @@
     </row>
     <row r="142" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>15</v>
@@ -9790,10 +9856,10 @@
     </row>
     <row r="143" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>15</v>
@@ -9816,10 +9882,10 @@
     </row>
     <row r="144" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>15</v>
@@ -9842,10 +9908,10 @@
     </row>
     <row r="145" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>15</v>
@@ -9868,10 +9934,10 @@
     </row>
     <row r="146" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>15</v>
@@ -9894,10 +9960,10 @@
     </row>
     <row r="147" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C147" s="4" t="s">
         <v>15</v>
@@ -9920,10 +9986,10 @@
     </row>
     <row r="148" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>15</v>
@@ -9946,10 +10012,10 @@
     </row>
     <row r="149" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C149" s="4" t="s">
         <v>15</v>
@@ -9972,10 +10038,10 @@
     </row>
     <row r="150" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>15</v>
@@ -9998,10 +10064,10 @@
     </row>
     <row r="151" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>15</v>
@@ -10024,10 +10090,10 @@
     </row>
     <row r="152" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>15</v>
@@ -10050,10 +10116,10 @@
     </row>
     <row r="153" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>15</v>
@@ -10076,10 +10142,10 @@
     </row>
     <row r="154" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>15</v>
@@ -10102,10 +10168,10 @@
     </row>
     <row r="155" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>15</v>
@@ -10128,10 +10194,10 @@
     </row>
     <row r="156" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>15</v>
@@ -10154,10 +10220,10 @@
     </row>
     <row r="157" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C157" s="4" t="s">
         <v>15</v>
@@ -10180,10 +10246,10 @@
     </row>
     <row r="158" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>15</v>
@@ -10206,10 +10272,10 @@
     </row>
     <row r="159" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>15</v>
@@ -10232,10 +10298,10 @@
     </row>
     <row r="160" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>15</v>
@@ -10258,10 +10324,10 @@
     </row>
     <row r="161" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C161" s="4" t="s">
         <v>15</v>
@@ -10284,10 +10350,10 @@
     </row>
     <row r="162" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C162" s="4" t="s">
         <v>15</v>
@@ -10310,10 +10376,10 @@
     </row>
     <row r="163" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C163" s="4" t="s">
         <v>15</v>
@@ -10336,10 +10402,10 @@
     </row>
     <row r="164" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C164" s="4" t="s">
         <v>15</v>
@@ -10362,10 +10428,10 @@
     </row>
     <row r="165" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C165" s="4" t="s">
         <v>15</v>
@@ -10388,10 +10454,10 @@
     </row>
     <row r="166" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>15</v>
@@ -10414,10 +10480,10 @@
     </row>
     <row r="167" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C167" s="4" t="s">
         <v>15</v>
@@ -10440,10 +10506,10 @@
     </row>
     <row r="168" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>15</v>
@@ -10466,10 +10532,10 @@
     </row>
     <row r="169" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C169" s="4" t="s">
         <v>15</v>
@@ -10492,10 +10558,10 @@
     </row>
     <row r="170" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>15</v>
@@ -10518,10 +10584,10 @@
     </row>
     <row r="171" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C171" s="4" t="s">
         <v>15</v>
@@ -10544,10 +10610,10 @@
     </row>
     <row r="172" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C172" s="4" t="s">
         <v>15</v>
@@ -10570,10 +10636,10 @@
     </row>
     <row r="173" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C173" s="4" t="s">
         <v>15</v>
@@ -10596,10 +10662,10 @@
     </row>
     <row r="174" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C174" s="4" t="s">
         <v>15</v>
@@ -10622,10 +10688,10 @@
     </row>
     <row r="175" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C175" s="4" t="s">
         <v>15</v>
@@ -10648,10 +10714,10 @@
     </row>
     <row r="176" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C176" s="4" t="s">
         <v>15</v>
@@ -10674,10 +10740,10 @@
     </row>
     <row r="177" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C177" s="4" t="s">
         <v>15</v>
@@ -10700,10 +10766,10 @@
     </row>
     <row r="178" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C178" s="4" t="s">
         <v>15</v>
@@ -10726,10 +10792,10 @@
     </row>
     <row r="179" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C179" s="4" t="s">
         <v>15</v>
@@ -10752,10 +10818,10 @@
     </row>
     <row r="180" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C180" s="4" t="s">
         <v>15</v>
@@ -10778,10 +10844,10 @@
     </row>
     <row r="181" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C181" s="4" t="s">
         <v>15</v>
@@ -10804,10 +10870,10 @@
     </row>
     <row r="182" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C182" s="4" t="s">
         <v>15</v>
@@ -10830,10 +10896,10 @@
     </row>
     <row r="183" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C183" s="4" t="s">
         <v>15</v>
@@ -10856,10 +10922,10 @@
     </row>
     <row r="184" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C184" s="4" t="s">
         <v>15</v>
@@ -10882,10 +10948,10 @@
     </row>
     <row r="185" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C185" s="4" t="s">
         <v>15</v>
@@ -10908,10 +10974,10 @@
     </row>
     <row r="186" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C186" s="4" t="s">
         <v>15</v>
@@ -10934,10 +11000,10 @@
     </row>
     <row r="187" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C187" s="4" t="s">
         <v>15</v>
@@ -10960,10 +11026,10 @@
     </row>
     <row r="188" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C188" s="4" t="s">
         <v>15</v>
@@ -10986,10 +11052,10 @@
     </row>
     <row r="189" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C189" s="4" t="s">
         <v>15</v>
@@ -11012,10 +11078,10 @@
     </row>
     <row r="190" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C190" s="4" t="s">
         <v>15</v>
@@ -11038,10 +11104,10 @@
     </row>
     <row r="191" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C191" s="4" t="s">
         <v>15</v>
@@ -11064,10 +11130,10 @@
     </row>
     <row r="192" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C192" s="4" t="s">
         <v>15</v>
@@ -11090,10 +11156,10 @@
     </row>
     <row r="193" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C193" s="4" t="s">
         <v>15</v>
@@ -11116,10 +11182,10 @@
     </row>
     <row r="194" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C194" s="4" t="s">
         <v>15</v>
@@ -11142,10 +11208,10 @@
     </row>
     <row r="195" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C195" s="4" t="s">
         <v>15</v>
@@ -11168,10 +11234,10 @@
     </row>
     <row r="196" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C196" s="4" t="s">
         <v>15</v>
@@ -11194,10 +11260,10 @@
     </row>
     <row r="197" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C197" s="4" t="s">
         <v>15</v>
@@ -11220,10 +11286,10 @@
     </row>
     <row r="198" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>15</v>
@@ -11246,10 +11312,10 @@
     </row>
     <row r="199" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C199" s="4" t="s">
         <v>15</v>
@@ -11272,10 +11338,10 @@
     </row>
     <row r="200" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>15</v>
@@ -11298,10 +11364,10 @@
     </row>
     <row r="201" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C201" s="4" t="s">
         <v>15</v>
@@ -11324,10 +11390,10 @@
     </row>
     <row r="202" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C202" s="4" t="s">
         <v>15</v>
@@ -11350,10 +11416,10 @@
     </row>
     <row r="203" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C203" s="4" t="s">
         <v>15</v>
@@ -11376,10 +11442,10 @@
     </row>
     <row r="204" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C204" s="4" t="s">
         <v>15</v>
@@ -11402,10 +11468,10 @@
     </row>
     <row r="205" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>15</v>
@@ -11428,10 +11494,10 @@
     </row>
     <row r="206" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>15</v>
@@ -11454,10 +11520,10 @@
     </row>
     <row r="207" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>15</v>
@@ -11480,10 +11546,10 @@
     </row>
     <row r="208" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C208" s="4" t="s">
         <v>15</v>
@@ -11506,16 +11572,16 @@
     </row>
     <row r="209" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="E209" s="4" t="s">
         <v>15</v>
@@ -11524,7 +11590,7 @@
         <v>15</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="H209" s="2" t="s">
         <v>15</v>
@@ -11532,16 +11598,16 @@
     </row>
     <row r="210" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="E210" s="4" t="s">
         <v>15</v>
@@ -11550,7 +11616,7 @@
         <v>15</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="H210" s="2" t="s">
         <v>15</v>
@@ -11558,16 +11624,16 @@
     </row>
     <row r="211" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="E211" s="4" t="s">
         <v>15</v>
@@ -11576,7 +11642,7 @@
         <v>15</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="H211" s="2" t="s">
         <v>15</v>
@@ -11584,16 +11650,16 @@
     </row>
     <row r="212" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="E212" s="4" t="s">
         <v>15</v>
@@ -11602,7 +11668,7 @@
         <v>15</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="H212" s="2" t="s">
         <v>15</v>
@@ -11610,16 +11676,16 @@
     </row>
     <row r="213" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>426</v>
+        <v>444</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="E213" s="4" t="s">
         <v>15</v>
@@ -11628,7 +11694,7 @@
         <v>15</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="H213" s="2" t="s">
         <v>15</v>
@@ -11636,16 +11702,16 @@
     </row>
     <row r="214" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>426</v>
+        <v>448</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="E214" s="4" t="s">
         <v>15</v>
@@ -11654,7 +11720,7 @@
         <v>15</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="H214" s="2" t="s">
         <v>15</v>
@@ -11662,16 +11728,16 @@
     </row>
     <row r="215" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>426</v>
+        <v>452</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="E215" s="4" t="s">
         <v>15</v>
@@ -11680,7 +11746,7 @@
         <v>15</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="H215" s="2" t="s">
         <v>15</v>
@@ -11688,16 +11754,16 @@
     </row>
     <row r="216" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>426</v>
+        <v>456</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="E216" s="4" t="s">
         <v>15</v>
@@ -11706,7 +11772,7 @@
         <v>15</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="H216" s="2" t="s">
         <v>15</v>
@@ -11714,16 +11780,16 @@
     </row>
     <row r="217" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>426</v>
+        <v>460</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="E217" s="4" t="s">
         <v>15</v>
@@ -11732,7 +11798,7 @@
         <v>15</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="H217" s="2" t="s">
         <v>15</v>
@@ -11740,16 +11806,16 @@
     </row>
     <row r="218" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>426</v>
+        <v>464</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="E218" s="4" t="s">
         <v>15</v>
@@ -11758,7 +11824,7 @@
         <v>15</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="H218" s="2" t="s">
         <v>15</v>
@@ -11766,16 +11832,16 @@
     </row>
     <row r="219" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>426</v>
+        <v>468</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="E219" s="4" t="s">
         <v>15</v>
@@ -11784,7 +11850,7 @@
         <v>15</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="H219" s="2" t="s">
         <v>15</v>
@@ -11792,16 +11858,16 @@
     </row>
     <row r="220" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>426</v>
+        <v>472</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="E220" s="4" t="s">
         <v>15</v>
@@ -11810,7 +11876,7 @@
         <v>15</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="H220" s="2" t="s">
         <v>15</v>
@@ -11818,16 +11884,16 @@
     </row>
     <row r="221" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>426</v>
+        <v>476</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="E221" s="4" t="s">
         <v>15</v>
@@ -11836,7 +11902,7 @@
         <v>15</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="H221" s="2" t="s">
         <v>15</v>
@@ -11844,16 +11910,16 @@
     </row>
     <row r="222" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>426</v>
+        <v>480</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
       <c r="E222" s="4" t="s">
         <v>15</v>
@@ -11862,7 +11928,7 @@
         <v>15</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
       <c r="H222" s="2" t="s">
         <v>15</v>
@@ -11870,16 +11936,16 @@
     </row>
     <row r="223" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>426</v>
+        <v>484</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>469</v>
+        <v>485</v>
       </c>
       <c r="E223" s="4" t="s">
         <v>15</v>
@@ -11888,7 +11954,7 @@
         <v>15</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>470</v>
+        <v>486</v>
       </c>
       <c r="H223" s="2" t="s">
         <v>15</v>
@@ -11896,16 +11962,16 @@
     </row>
     <row r="224" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>471</v>
+        <v>487</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>426</v>
+        <v>488</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>472</v>
+        <v>489</v>
       </c>
       <c r="E224" s="4" t="s">
         <v>15</v>
@@ -11914,7 +11980,7 @@
         <v>15</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>473</v>
+        <v>490</v>
       </c>
       <c r="H224" s="2" t="s">
         <v>15</v>
@@ -11922,16 +11988,16 @@
     </row>
     <row r="225" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>426</v>
+        <v>492</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>475</v>
+        <v>493</v>
       </c>
       <c r="E225" s="4" t="s">
         <v>15</v>
@@ -11940,7 +12006,7 @@
         <v>15</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>476</v>
+        <v>494</v>
       </c>
       <c r="H225" s="2" t="s">
         <v>15</v>
@@ -11948,16 +12014,16 @@
     </row>
     <row r="226" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>477</v>
+        <v>495</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>426</v>
+        <v>496</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>478</v>
+        <v>497</v>
       </c>
       <c r="E226" s="4" t="s">
         <v>15</v>
@@ -11966,7 +12032,7 @@
         <v>15</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>479</v>
+        <v>498</v>
       </c>
       <c r="H226" s="2" t="s">
         <v>15</v>
@@ -11974,16 +12040,16 @@
     </row>
     <row r="227" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>480</v>
+        <v>499</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>426</v>
+        <v>500</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>481</v>
+        <v>501</v>
       </c>
       <c r="E227" s="4" t="s">
         <v>15</v>
@@ -11992,7 +12058,7 @@
         <v>15</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>482</v>
+        <v>502</v>
       </c>
       <c r="H227" s="2" t="s">
         <v>15</v>
@@ -12000,16 +12066,16 @@
     </row>
     <row r="228" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>426</v>
+        <v>504</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>484</v>
+        <v>505</v>
       </c>
       <c r="E228" s="4" t="s">
         <v>15</v>
@@ -12018,7 +12084,7 @@
         <v>15</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>485</v>
+        <v>506</v>
       </c>
       <c r="H228" s="2" t="s">
         <v>15</v>
@@ -12026,16 +12092,16 @@
     </row>
     <row r="229" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>486</v>
+        <v>507</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>426</v>
+        <v>508</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>487</v>
+        <v>509</v>
       </c>
       <c r="E229" s="4" t="s">
         <v>15</v>
@@ -12044,7 +12110,7 @@
         <v>15</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>488</v>
+        <v>510</v>
       </c>
       <c r="H229" s="2" t="s">
         <v>15</v>
@@ -12052,16 +12118,16 @@
     </row>
     <row r="230" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>489</v>
+        <v>511</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>426</v>
+        <v>512</v>
       </c>
       <c r="D230" s="4" t="s">
-        <v>490</v>
+        <v>513</v>
       </c>
       <c r="E230" s="4" t="s">
         <v>15</v>
@@ -12070,7 +12136,7 @@
         <v>15</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>491</v>
+        <v>514</v>
       </c>
       <c r="H230" s="2" t="s">
         <v>15</v>
@@ -12078,16 +12144,16 @@
     </row>
     <row r="231" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>492</v>
+        <v>515</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>426</v>
+        <v>516</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>493</v>
+        <v>517</v>
       </c>
       <c r="E231" s="4" t="s">
         <v>15</v>
@@ -12096,7 +12162,7 @@
         <v>15</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>494</v>
+        <v>518</v>
       </c>
       <c r="H231" s="2" t="s">
         <v>15</v>
@@ -12132,31 +12198,31 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>3</v>
@@ -12164,16 +12230,16 @@
     </row>
     <row r="2" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>496</v>
+        <v>520</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>15</v>
@@ -12185,10 +12251,10 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>15</v>
@@ -12196,16 +12262,16 @@
     </row>
     <row r="3" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>496</v>
+        <v>520</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>15</v>
@@ -12217,10 +12283,10 @@
         <v>15</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>15</v>
@@ -12228,16 +12294,16 @@
     </row>
     <row r="4" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>496</v>
+        <v>520</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>15</v>
@@ -12249,10 +12315,10 @@
         <v>15</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>15</v>
@@ -12260,16 +12326,16 @@
     </row>
     <row r="5" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>496</v>
+        <v>520</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>15</v>
@@ -12281,10 +12347,10 @@
         <v>15</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>15</v>
@@ -12292,16 +12358,16 @@
     </row>
     <row r="6" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>496</v>
+        <v>520</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>15</v>
@@ -12313,10 +12379,10 @@
         <v>15</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>15</v>
@@ -12324,16 +12390,16 @@
     </row>
     <row r="7" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>496</v>
+        <v>520</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>15</v>
@@ -12345,10 +12411,10 @@
         <v>15</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>15</v>
@@ -12356,16 +12422,16 @@
     </row>
     <row r="8" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>496</v>
+        <v>520</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>15</v>
@@ -12377,10 +12443,10 @@
         <v>15</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>15</v>
@@ -12388,16 +12454,16 @@
     </row>
     <row r="9" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>496</v>
+        <v>520</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>15</v>
@@ -12409,10 +12475,10 @@
         <v>15</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>15</v>
@@ -12420,16 +12486,16 @@
     </row>
     <row r="10" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>496</v>
+        <v>520</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>15</v>
@@ -12441,10 +12507,10 @@
         <v>15</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>497</v>
+        <v>521</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>15</v>
@@ -12452,16 +12518,16 @@
     </row>
     <row r="11" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>496</v>
+        <v>520</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>15</v>
@@ -12476,7 +12542,7 @@
         <v>10</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>15</v>
@@ -12484,16 +12550,16 @@
     </row>
     <row r="12" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>496</v>
+        <v>520</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>15</v>
@@ -12508,7 +12574,7 @@
         <v>11</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>15</v>
@@ -12516,16 +12582,16 @@
     </row>
     <row r="13" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>496</v>
+        <v>520</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>15</v>
@@ -12540,7 +12606,7 @@
         <v>12</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>15</v>

--- a/assets/importSamples/Trak-Detailed-XLSX-Export-Sample/Trak-Detailed-XLSX-Export-Sample.xlsx
+++ b/assets/importSamples/Trak-Detailed-XLSX-Export-Sample/Trak-Detailed-XLSX-Export-Sample.xlsx
@@ -1,30 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C7C621-B912-46D1-B93A-5A506CA09477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-38510" yWindow="-3900" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Category-Anime" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="Category-Book" state="visible" r:id="rId5"/>
-    <sheet sheetId="3" name="Category-Film" state="visible" r:id="rId6"/>
-    <sheet sheetId="4" name="Category-Manga" state="visible" r:id="rId7"/>
-    <sheet sheetId="5" name="Category-Show" state="visible" r:id="rId8"/>
-    <sheet sheetId="6" name="Show-Ahsoka" state="visible" r:id="rId9"/>
-    <sheet sheetId="7" name="Show-Andor" state="visible" r:id="rId10"/>
-    <sheet sheetId="8" name="Manga-DemonSlayer-KimetsuNoYaib" state="visible" r:id="rId11"/>
-    <sheet sheetId="9" name="Anime-OnePunchMan" state="visible" r:id="rId12"/>
-    <sheet sheetId="10" name="Manga-RomanticKiller" state="visible" r:id="rId13"/>
-    <sheet sheetId="11" name="Show-SecretInvasion" state="visible" r:id="rId14"/>
-    <sheet sheetId="12" name="Anime-Suzume" state="visible" r:id="rId15"/>
-    <sheet sheetId="13" name="Manga-Tista" state="visible" r:id="rId16"/>
-    <sheet sheetId="14" name="Anime-Tomo-chanIsAGirl!" state="visible" r:id="rId17"/>
+    <sheet name="Category-Anime" sheetId="1" r:id="rId1"/>
+    <sheet name="Category-Book" sheetId="2" r:id="rId2"/>
+    <sheet name="Category-Film" sheetId="3" r:id="rId3"/>
+    <sheet name="Category-Manga" sheetId="4" r:id="rId4"/>
+    <sheet name="Category-Show" sheetId="5" r:id="rId5"/>
+    <sheet name="Show-Ahsoka" sheetId="6" r:id="rId6"/>
+    <sheet name="Show-Andor" sheetId="7" r:id="rId7"/>
+    <sheet name="Manga-DemonSlayer-KimetsuNoYaib" sheetId="8" r:id="rId8"/>
+    <sheet name="Anime-OnePunchMan" sheetId="9" r:id="rId9"/>
+    <sheet name="Manga-RomanticKiller" sheetId="10" r:id="rId10"/>
+    <sheet name="Show-SecretInvasion" sheetId="11" r:id="rId11"/>
+    <sheet name="Anime-Suzume" sheetId="12" r:id="rId12"/>
+    <sheet name="Manga-Tista" sheetId="13" r:id="rId13"/>
+    <sheet name="Anime-Tomo-chanIsAGirl!" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3119" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3123" uniqueCount="546">
   <si>
     <t>Name</t>
   </si>
@@ -74,7 +78,7 @@
     <t>N/A</t>
   </si>
   <si>
-    <t xml:space="preserve">The seemingly unimpressive Saitama has a rather unique hobby: being a hero. In order to pursue his childhood dream, Saitama relentlessly trained for three years, losing all of his hair in the process. Now, Saitama is so powerful, he can defeat any enemy with just one punch. However, having no one capable of matching his strength has led Saitama to an unexpected problem—he is no longer able to enjoy the thrill of battling and has become quite bored.
+    <t>The seemingly unimpressive Saitama has a rather unique hobby: being a hero. In order to pursue his childhood dream, Saitama relentlessly trained for three years, losing all of his hair in the process. Now, Saitama is so powerful, he can defeat any enemy with just one punch. However, having no one capable of matching his strength has led Saitama to an unexpected problem—he is no longer able to enjoy the thrill of battling and has become quite bored.
 One day, Saitama catches the attention of 19-year-old cyborg Genos, who witnesses his power and wishes to become Saitama's disciple. Genos proposes that the two join the Hero Association in order to become certified heroes that will be recognized for their positive contributions to society. Saitama, who is shocked that no one knows who he is, quickly agrees. Meeting new allies and taking on new foes, Saitama embarks on a new journey as a member of the Hero Association to experience the excitement of battle he once felt.</t>
   </si>
   <si>
@@ -96,7 +100,7 @@
     <t>すずめの戸締まり</t>
   </si>
   <si>
-    <t xml:space="preserve">On her way to school one day, Suzume Iwato stumbles upon Souta Munakata, a young man searching for abandoned areas. The high school girl directs Souta to a nearby ruin, but out of pure curiosity, she herself decides to head to the same destination.
+    <t>On her way to school one day, Suzume Iwato stumbles upon Souta Munakata, a young man searching for abandoned areas. The high school girl directs Souta to a nearby ruin, but out of pure curiosity, she herself decides to head to the same destination.
 Once there, Suzume discovers an isolated door with a dreamlike universe lying beyond it—a place that she can see and feel, but not enter. A strange stone rests on the ground nearby, but it turns into a cat-like creature and scurries away when Suzume lifts it. Suddenly afraid, she heads back toward her school, not realizing that her act of leaving the door open will have consequences.
 With the "keystone" released, the evil within the other universe can now freely escape and wreak havoc throughout Japan. Intending to correct her dangerous mistake, Suzume joins Souta—whose true goal is to prevent evil from festering—in finding and locking all open doors before the country is destroyed.</t>
   </si>
@@ -125,7 +129,7 @@
     <t>トモちゃんは女の子！</t>
   </si>
   <si>
-    <t xml:space="preserve">Childhood friends Tomo Aizawa and Junichirou "Jun" Kubota do everything together, whether it be training or just enjoying a fun day out. Anyone would think that these two are best friends for life. The only issue is that the tomboyish Tomo is in love with Jun, but he regards her like a brother.
+    <t>Childhood friends Tomo Aizawa and Junichirou "Jun" Kubota do everything together, whether it be training or just enjoying a fun day out. Anyone would think that these two are best friends for life. The only issue is that the tomboyish Tomo is in love with Jun, but he regards her like a brother.
 At the start of their first year of high school, Tomo confesses her feelings to Jun. However, her rough mannerisms and lack of hesitance to throw a punch do nothing to sway Jun's heart. Realizing that he will remain indifferent to her affections unless she does something about it, Tomo must find a way to knock some sense into Jun and open his eyes to what is right in front of him.</t>
   </si>
   <si>
@@ -405,7 +409,7 @@
     <t>鬼滅の刃</t>
   </si>
   <si>
-    <t xml:space="preserve">Tanjirou Kamado lives with his impoverished family on a remote mountain. As the oldest sibling, he took upon the responsibility of ensuring his family's livelihood after the death of his father. On a cold winter day, he goes down to the local village in order to sell some charcoal. As dusk falls, he is forced to spend the night in the house of a curious man who cautions him of strange creatures that roam the night: malevolent demons who crave human flesh.
+    <t>Tanjirou Kamado lives with his impoverished family on a remote mountain. As the oldest sibling, he took upon the responsibility of ensuring his family's livelihood after the death of his father. On a cold winter day, he goes down to the local village in order to sell some charcoal. As dusk falls, he is forced to spend the night in the house of a curious man who cautions him of strange creatures that roam the night: malevolent demons who crave human flesh.
 When he finally makes his way home, Tanjirou's worst nightmare comes true. His entire family has been brutally slaughtered with the sole exception of his sister Nezuko, who has turned into a flesh-eating demon. Engulfed in hatred and despair, Tanjirou desperately tries to stop Nezuko from attacking other people, setting out on a journey to avenge his family and find a way to turn his beloved sister back into a human.</t>
   </si>
   <si>
@@ -430,7 +434,7 @@
     <t>ロマンティック・キラー</t>
   </si>
   <si>
-    <t xml:space="preserve">The declining birth rate in Japan has led to a significant decrease in the sparkly innocence of human children, a vital energy source for the magical world. With businesses closing due to the shortage, a resolution is passed: a lasting romance will be created for humans who prioritize their hobbies or careers over falling in love.
+    <t>The declining birth rate in Japan has led to a significant decrease in the sparkly innocence of human children, a vital energy source for the magical world. With businesses closing due to the shortage, a resolution is passed: a lasting romance will be created for humans who prioritize their hobbies or careers over falling in love.
 Before this policy is enforced nationwide, the magical fairy Riri selects high school student Anzu Hoshino as a preliminary test subject. Primarily preoccupied with her video games, beloved pet cat, and her obsession with chocolate, Anzu is the perfect candidate. Unfortunately for Riri, Anzu is vehemently against this idea and actively works to thwart the magical world's vain attempts at forcing her into a romance.
 Even with her distractions confiscated, Anzu stubbornly tries to evade her new predetermined fate, only for it to backfire when she collides with Tsukasa Kazuki, a hot guy from her school. Now unable to avoid the boy she had not even noticed before, Anzu wonders if her sabotage tactics will prove to be futile.</t>
   </si>
@@ -1657,34 +1661,53 @@
   </si>
   <si>
     <t>Episode 13</t>
+  </si>
+  <si>
+    <t>Premiered</t>
+  </si>
+  <si>
+    <t>Fall 2015</t>
+  </si>
+  <si>
+    <t>Fall 2022</t>
+  </si>
+  <si>
+    <t>Winter 2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <u/>
+      <sz val="12"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="12"/>
-      <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="10"/>
-      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1704,17 +1727,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1729,6 +1760,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2069,67 +2103,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="5" width="125" customWidth="1"/>
     <col min="6" max="11" width="30" customWidth="1"/>
-    <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="40" customWidth="1"/>
+    <col min="12" max="13" width="15" customWidth="1"/>
+    <col min="14" max="14" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" ht="75" customHeight="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -2166,11 +2205,14 @@
       <c r="L2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" ht="75" customHeight="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -2207,11 +2249,14 @@
       <c r="L3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" ht="75" customHeight="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>30</v>
       </c>
@@ -2248,23 +2293,26 @@
       <c r="L4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" location="#'Anime-OnePunchMan'!A2"/>
-    <hyperlink ref="A3" r:id="rId2" location="#'Anime-Suzume'!A2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A2" location="#'Anime-OnePunchMan'!A2" display="One Punch Man" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A3" location="#'Anime-Suzume'!A2" display="Suzume" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A4" location="'Anime-Tomo-chanIsAGirl!'!A2" display="Tomo-chan is a Girl!" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2272,7 +2320,7 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
@@ -2282,7 +2330,7 @@
     <col min="7" max="8" width="125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>216</v>
       </c>
@@ -2308,7 +2356,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>218</v>
       </c>
@@ -2334,7 +2382,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>218</v>
       </c>
@@ -2360,7 +2408,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>218</v>
       </c>
@@ -2386,7 +2434,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>218</v>
       </c>
@@ -2412,7 +2460,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>218</v>
       </c>
@@ -2438,7 +2486,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>218</v>
       </c>
@@ -2464,7 +2512,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>218</v>
       </c>
@@ -2490,7 +2538,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>218</v>
       </c>
@@ -2516,7 +2564,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>218</v>
       </c>
@@ -2542,7 +2590,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>218</v>
       </c>
@@ -2568,7 +2616,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>218</v>
       </c>
@@ -2594,7 +2642,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>218</v>
       </c>
@@ -2620,7 +2668,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>218</v>
       </c>
@@ -2646,7 +2694,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>218</v>
       </c>
@@ -2672,7 +2720,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>218</v>
       </c>
@@ -2698,7 +2746,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>218</v>
       </c>
@@ -2724,7 +2772,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>218</v>
       </c>
@@ -2750,7 +2798,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>218</v>
       </c>
@@ -2776,7 +2824,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>218</v>
       </c>
@@ -2802,7 +2850,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>218</v>
       </c>
@@ -2828,7 +2876,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>218</v>
       </c>
@@ -2854,7 +2902,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>218</v>
       </c>
@@ -2880,7 +2928,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>218</v>
       </c>
@@ -2906,7 +2954,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>218</v>
       </c>
@@ -2932,7 +2980,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>218</v>
       </c>
@@ -2958,7 +3006,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>218</v>
       </c>
@@ -2984,7 +3032,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>218</v>
       </c>
@@ -3010,7 +3058,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>218</v>
       </c>
@@ -3036,7 +3084,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>218</v>
       </c>
@@ -3062,7 +3110,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>218</v>
       </c>
@@ -3088,7 +3136,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>218</v>
       </c>
@@ -3114,7 +3162,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>218</v>
       </c>
@@ -3140,7 +3188,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>218</v>
       </c>
@@ -3166,7 +3214,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>218</v>
       </c>
@@ -3192,7 +3240,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>218</v>
       </c>
@@ -3218,7 +3266,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>218</v>
       </c>
@@ -3244,7 +3292,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>218</v>
       </c>
@@ -3270,7 +3318,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>218</v>
       </c>
@@ -3296,7 +3344,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>218</v>
       </c>
@@ -3322,7 +3370,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>426</v>
       </c>
@@ -3348,7 +3396,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>426</v>
       </c>
@@ -3374,7 +3422,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>426</v>
       </c>
@@ -3400,7 +3448,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>426</v>
       </c>
@@ -3428,12 +3476,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3441,7 +3489,7 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="3" width="15" customWidth="1"/>
@@ -3453,7 +3501,7 @@
     <col min="9" max="9" width="125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>181</v>
       </c>
@@ -3482,7 +3530,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="75" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>186</v>
       </c>
@@ -3511,7 +3559,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" ht="75" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>186</v>
       </c>
@@ -3540,7 +3588,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" ht="75" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>186</v>
       </c>
@@ -3569,7 +3617,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" ht="75" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>186</v>
       </c>
@@ -3598,7 +3646,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" ht="75" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>186</v>
       </c>
@@ -3627,7 +3675,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" ht="75" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>186</v>
       </c>
@@ -3658,12 +3706,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3671,7 +3719,7 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
@@ -3684,7 +3732,7 @@
     <col min="10" max="10" width="125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>216</v>
       </c>
@@ -3716,7 +3764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>537</v>
       </c>
@@ -3750,12 +3798,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3763,7 +3811,7 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
@@ -3773,7 +3821,7 @@
     <col min="7" max="8" width="125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>216</v>
       </c>
@@ -3799,7 +3847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>218</v>
       </c>
@@ -3825,7 +3873,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>218</v>
       </c>
@@ -3851,7 +3899,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>218</v>
       </c>
@@ -3877,7 +3925,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>218</v>
       </c>
@@ -3903,7 +3951,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>218</v>
       </c>
@@ -3929,7 +3977,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>218</v>
       </c>
@@ -3955,7 +4003,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>218</v>
       </c>
@@ -3981,7 +4029,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>218</v>
       </c>
@@ -4007,7 +4055,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>218</v>
       </c>
@@ -4033,7 +4081,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>426</v>
       </c>
@@ -4059,7 +4107,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>426</v>
       </c>
@@ -4087,12 +4135,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4100,7 +4148,7 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
@@ -4113,7 +4161,7 @@
     <col min="10" max="10" width="125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>216</v>
       </c>
@@ -4145,7 +4193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>519</v>
       </c>
@@ -4177,7 +4225,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>519</v>
       </c>
@@ -4209,7 +4257,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>519</v>
       </c>
@@ -4241,7 +4289,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>519</v>
       </c>
@@ -4273,7 +4321,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>519</v>
       </c>
@@ -4305,7 +4353,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>519</v>
       </c>
@@ -4337,7 +4385,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>519</v>
       </c>
@@ -4369,7 +4417,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>519</v>
       </c>
@@ -4401,7 +4449,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>519</v>
       </c>
@@ -4433,7 +4481,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>519</v>
       </c>
@@ -4465,7 +4513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>519</v>
       </c>
@@ -4497,7 +4545,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>519</v>
       </c>
@@ -4529,7 +4577,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>519</v>
       </c>
@@ -4563,20 +4611,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
@@ -4591,7 +4641,7 @@
     <col min="13" max="13" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -4632,7 +4682,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" ht="75" customHeight="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>46</v>
       </c>
@@ -4673,7 +4723,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" ht="75" customHeight="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>56</v>
       </c>
@@ -4714,7 +4764,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" ht="75" customHeight="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>66</v>
       </c>
@@ -4757,20 +4807,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
@@ -4782,7 +4834,7 @@
     <col min="18" max="18" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4838,7 +4890,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" ht="75" customHeight="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>83</v>
       </c>
@@ -4894,7 +4946,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" ht="75" customHeight="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>95</v>
       </c>
@@ -4950,7 +5002,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" ht="75" customHeight="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>106</v>
       </c>
@@ -5008,20 +5060,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
@@ -5032,7 +5086,7 @@
     <col min="13" max="13" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5073,7 +5127,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" ht="75" customHeight="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>123</v>
       </c>
@@ -5114,7 +5168,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" ht="75" customHeight="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>131</v>
       </c>
@@ -5155,7 +5209,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" ht="75" customHeight="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>138</v>
       </c>
@@ -5198,25 +5252,27 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" location="#'Manga-DemonSlayer-KimetsuNoYaib'!A2"/>
-    <hyperlink ref="A3" r:id="rId2" location="#'Manga-RomanticKiller'!A2"/>
-    <hyperlink ref="A4" r:id="rId3" location="#'Manga-Tista'!A2"/>
+    <hyperlink ref="A2" location="#'Manga-DemonSlayer-KimetsuNoYaib'!A2" display="Demon Slayer: Kimetsu no Yaiba" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="A3" location="#'Manga-RomanticKiller'!A2" display="Romantic Killer" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="A4" location="#'Manga-Tista'!A2" display="Tista" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
@@ -5228,7 +5284,7 @@
     <col min="17" max="17" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5281,7 +5337,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" ht="75" customHeight="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>145</v>
       </c>
@@ -5334,7 +5390,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="3" ht="75" customHeight="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>157</v>
       </c>
@@ -5387,7 +5443,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" ht="75" customHeight="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>169</v>
       </c>
@@ -5442,17 +5498,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" location="#'Show-Ahsoka'!A2"/>
-    <hyperlink ref="A3" r:id="rId2" location="#'Show-Andor'!A2"/>
-    <hyperlink ref="A4" r:id="rId3" location="#'Show-SecretInvasion'!A2"/>
+    <hyperlink ref="A2" location="#'Show-Ahsoka'!A2" display="Ahsoka" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="A3" location="#'Show-Andor'!A2" display="Andor" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="A4" location="#'Show-SecretInvasion'!A2" display="Secret Invasion" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5460,7 +5516,7 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="3" width="15" customWidth="1"/>
@@ -5472,7 +5528,7 @@
     <col min="9" max="9" width="125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>181</v>
       </c>
@@ -5501,7 +5557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="75" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>186</v>
       </c>
@@ -5530,7 +5586,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" ht="75" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>186</v>
       </c>
@@ -5559,7 +5615,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" ht="75" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>186</v>
       </c>
@@ -5588,7 +5644,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" ht="75" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>186</v>
       </c>
@@ -5617,7 +5673,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" ht="75" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>186</v>
       </c>
@@ -5646,7 +5702,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" ht="75" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>186</v>
       </c>
@@ -5675,7 +5731,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" ht="75" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>186</v>
       </c>
@@ -5704,7 +5760,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" ht="75" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>186</v>
       </c>
@@ -5735,12 +5791,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5748,7 +5804,7 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="3" width="15" customWidth="1"/>
@@ -5760,7 +5816,7 @@
     <col min="9" max="9" width="125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>181</v>
       </c>
@@ -5789,7 +5845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="75" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>186</v>
       </c>
@@ -5818,7 +5874,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" ht="75" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>186</v>
       </c>
@@ -5847,7 +5903,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" ht="75" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>186</v>
       </c>
@@ -5876,7 +5932,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" ht="75" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>186</v>
       </c>
@@ -5905,7 +5961,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" ht="75" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>186</v>
       </c>
@@ -5934,7 +5990,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" ht="75" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>186</v>
       </c>
@@ -5963,7 +6019,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" ht="75" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>186</v>
       </c>
@@ -5992,7 +6048,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" ht="75" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>186</v>
       </c>
@@ -6021,7 +6077,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" ht="75" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>186</v>
       </c>
@@ -6050,7 +6106,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" ht="75" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>186</v>
       </c>
@@ -6079,7 +6135,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" ht="75" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>186</v>
       </c>
@@ -6108,7 +6164,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" ht="75" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>186</v>
       </c>
@@ -6139,12 +6195,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6152,7 +6208,7 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
@@ -6162,7 +6218,7 @@
     <col min="7" max="8" width="125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>216</v>
       </c>
@@ -6188,7 +6244,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>218</v>
       </c>
@@ -6214,7 +6270,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>218</v>
       </c>
@@ -6240,7 +6296,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>218</v>
       </c>
@@ -6266,7 +6322,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>218</v>
       </c>
@@ -6292,7 +6348,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>218</v>
       </c>
@@ -6318,7 +6374,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>218</v>
       </c>
@@ -6344,7 +6400,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>218</v>
       </c>
@@ -6370,7 +6426,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>218</v>
       </c>
@@ -6396,7 +6452,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>218</v>
       </c>
@@ -6422,7 +6478,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>218</v>
       </c>
@@ -6448,7 +6504,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>218</v>
       </c>
@@ -6474,7 +6530,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>218</v>
       </c>
@@ -6500,7 +6556,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>218</v>
       </c>
@@ -6526,7 +6582,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>218</v>
       </c>
@@ -6552,7 +6608,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>218</v>
       </c>
@@ -6578,7 +6634,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>218</v>
       </c>
@@ -6604,7 +6660,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>218</v>
       </c>
@@ -6630,7 +6686,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>218</v>
       </c>
@@ -6656,7 +6712,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>218</v>
       </c>
@@ -6682,7 +6738,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>218</v>
       </c>
@@ -6708,7 +6764,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>218</v>
       </c>
@@ -6734,7 +6790,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>218</v>
       </c>
@@ -6760,7 +6816,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>218</v>
       </c>
@@ -6786,7 +6842,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>218</v>
       </c>
@@ -6812,7 +6868,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>218</v>
       </c>
@@ -6838,7 +6894,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>218</v>
       </c>
@@ -6864,7 +6920,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>218</v>
       </c>
@@ -6890,7 +6946,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>218</v>
       </c>
@@ -6916,7 +6972,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>218</v>
       </c>
@@ -6942,7 +6998,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>218</v>
       </c>
@@ -6968,7 +7024,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>218</v>
       </c>
@@ -6994,7 +7050,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>218</v>
       </c>
@@ -7020,7 +7076,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>218</v>
       </c>
@@ -7046,7 +7102,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>218</v>
       </c>
@@ -7072,7 +7128,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>218</v>
       </c>
@@ -7098,7 +7154,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>218</v>
       </c>
@@ -7124,7 +7180,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>218</v>
       </c>
@@ -7150,7 +7206,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>218</v>
       </c>
@@ -7176,7 +7232,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>218</v>
       </c>
@@ -7202,7 +7258,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>218</v>
       </c>
@@ -7228,7 +7284,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>218</v>
       </c>
@@ -7254,7 +7310,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>218</v>
       </c>
@@ -7280,7 +7336,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>218</v>
       </c>
@@ -7306,7 +7362,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>218</v>
       </c>
@@ -7332,7 +7388,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>218</v>
       </c>
@@ -7358,7 +7414,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>218</v>
       </c>
@@ -7384,7 +7440,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>218</v>
       </c>
@@ -7410,7 +7466,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>218</v>
       </c>
@@ -7436,7 +7492,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>218</v>
       </c>
@@ -7462,7 +7518,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>218</v>
       </c>
@@ -7488,7 +7544,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>218</v>
       </c>
@@ -7514,7 +7570,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>218</v>
       </c>
@@ -7540,7 +7596,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>218</v>
       </c>
@@ -7566,7 +7622,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>218</v>
       </c>
@@ -7592,7 +7648,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>218</v>
       </c>
@@ -7618,7 +7674,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>218</v>
       </c>
@@ -7644,7 +7700,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>218</v>
       </c>
@@ -7670,7 +7726,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>218</v>
       </c>
@@ -7696,7 +7752,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>218</v>
       </c>
@@ -7722,7 +7778,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>218</v>
       </c>
@@ -7748,7 +7804,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>218</v>
       </c>
@@ -7774,7 +7830,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>218</v>
       </c>
@@ -7800,7 +7856,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>218</v>
       </c>
@@ -7826,7 +7882,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>218</v>
       </c>
@@ -7852,7 +7908,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>218</v>
       </c>
@@ -7878,7 +7934,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>218</v>
       </c>
@@ -7904,7 +7960,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>218</v>
       </c>
@@ -7930,7 +7986,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>218</v>
       </c>
@@ -7956,7 +8012,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>218</v>
       </c>
@@ -7982,7 +8038,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>218</v>
       </c>
@@ -8008,7 +8064,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>218</v>
       </c>
@@ -8034,7 +8090,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>218</v>
       </c>
@@ -8060,7 +8116,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>218</v>
       </c>
@@ -8086,7 +8142,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>218</v>
       </c>
@@ -8112,7 +8168,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>218</v>
       </c>
@@ -8138,7 +8194,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>218</v>
       </c>
@@ -8164,7 +8220,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>218</v>
       </c>
@@ -8190,7 +8246,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>218</v>
       </c>
@@ -8216,7 +8272,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>218</v>
       </c>
@@ -8242,7 +8298,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>218</v>
       </c>
@@ -8268,7 +8324,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>218</v>
       </c>
@@ -8294,7 +8350,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>218</v>
       </c>
@@ -8320,7 +8376,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>218</v>
       </c>
@@ -8346,7 +8402,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>218</v>
       </c>
@@ -8372,7 +8428,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>218</v>
       </c>
@@ -8398,7 +8454,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>218</v>
       </c>
@@ -8424,7 +8480,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>218</v>
       </c>
@@ -8450,7 +8506,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>218</v>
       </c>
@@ -8476,7 +8532,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>218</v>
       </c>
@@ -8502,7 +8558,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>218</v>
       </c>
@@ -8528,7 +8584,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>218</v>
       </c>
@@ -8554,7 +8610,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>218</v>
       </c>
@@ -8580,7 +8636,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>218</v>
       </c>
@@ -8606,7 +8662,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>218</v>
       </c>
@@ -8632,7 +8688,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>218</v>
       </c>
@@ -8658,7 +8714,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>218</v>
       </c>
@@ -8684,7 +8740,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>218</v>
       </c>
@@ -8710,7 +8766,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>218</v>
       </c>
@@ -8736,7 +8792,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>218</v>
       </c>
@@ -8762,7 +8818,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>218</v>
       </c>
@@ -8788,7 +8844,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>218</v>
       </c>
@@ -8814,7 +8870,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>218</v>
       </c>
@@ -8840,7 +8896,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>218</v>
       </c>
@@ -8866,7 +8922,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>218</v>
       </c>
@@ -8892,7 +8948,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>218</v>
       </c>
@@ -8918,7 +8974,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>218</v>
       </c>
@@ -8944,7 +9000,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>218</v>
       </c>
@@ -8970,7 +9026,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>218</v>
       </c>
@@ -8996,7 +9052,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>218</v>
       </c>
@@ -9022,7 +9078,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>218</v>
       </c>
@@ -9048,7 +9104,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>218</v>
       </c>
@@ -9074,7 +9130,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>218</v>
       </c>
@@ -9100,7 +9156,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>218</v>
       </c>
@@ -9126,7 +9182,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>218</v>
       </c>
@@ -9152,7 +9208,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>218</v>
       </c>
@@ -9178,7 +9234,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>218</v>
       </c>
@@ -9204,7 +9260,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>218</v>
       </c>
@@ -9230,7 +9286,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>218</v>
       </c>
@@ -9256,7 +9312,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>218</v>
       </c>
@@ -9282,7 +9338,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>218</v>
       </c>
@@ -9308,7 +9364,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>218</v>
       </c>
@@ -9334,7 +9390,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>218</v>
       </c>
@@ -9360,7 +9416,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="124" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>218</v>
       </c>
@@ -9386,7 +9442,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="125" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>218</v>
       </c>
@@ -9412,7 +9468,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="126" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>218</v>
       </c>
@@ -9438,7 +9494,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>218</v>
       </c>
@@ -9464,7 +9520,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>218</v>
       </c>
@@ -9490,7 +9546,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="129" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>218</v>
       </c>
@@ -9516,7 +9572,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>218</v>
       </c>
@@ -9542,7 +9598,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="131" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>218</v>
       </c>
@@ -9568,7 +9624,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="132" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>218</v>
       </c>
@@ -9594,7 +9650,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="133" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>218</v>
       </c>
@@ -9620,7 +9676,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>218</v>
       </c>
@@ -9646,7 +9702,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="135" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>218</v>
       </c>
@@ -9672,7 +9728,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="136" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>218</v>
       </c>
@@ -9698,7 +9754,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="137" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>218</v>
       </c>
@@ -9724,7 +9780,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="138" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>218</v>
       </c>
@@ -9750,7 +9806,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>218</v>
       </c>
@@ -9776,7 +9832,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="140" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>218</v>
       </c>
@@ -9802,7 +9858,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>218</v>
       </c>
@@ -9828,7 +9884,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="142" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>218</v>
       </c>
@@ -9854,7 +9910,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="143" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>218</v>
       </c>
@@ -9880,7 +9936,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="144" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>218</v>
       </c>
@@ -9906,7 +9962,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="145" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>218</v>
       </c>
@@ -9932,7 +9988,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="146" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>218</v>
       </c>
@@ -9958,7 +10014,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="147" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>218</v>
       </c>
@@ -9984,7 +10040,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>218</v>
       </c>
@@ -10010,7 +10066,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="149" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>218</v>
       </c>
@@ -10036,7 +10092,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="150" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>218</v>
       </c>
@@ -10062,7 +10118,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>218</v>
       </c>
@@ -10088,7 +10144,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>218</v>
       </c>
@@ -10114,7 +10170,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>218</v>
       </c>
@@ -10140,7 +10196,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="154" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>218</v>
       </c>
@@ -10166,7 +10222,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="155" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>218</v>
       </c>
@@ -10192,7 +10248,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="156" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>218</v>
       </c>
@@ -10218,7 +10274,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>218</v>
       </c>
@@ -10244,7 +10300,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>218</v>
       </c>
@@ -10270,7 +10326,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="159" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>218</v>
       </c>
@@ -10296,7 +10352,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="160" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>218</v>
       </c>
@@ -10322,7 +10378,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="161" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>218</v>
       </c>
@@ -10348,7 +10404,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="162" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>218</v>
       </c>
@@ -10374,7 +10430,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="163" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>218</v>
       </c>
@@ -10400,7 +10456,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="164" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>218</v>
       </c>
@@ -10426,7 +10482,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="165" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>218</v>
       </c>
@@ -10452,7 +10508,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="166" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>218</v>
       </c>
@@ -10478,7 +10534,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="167" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>218</v>
       </c>
@@ -10504,7 +10560,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="168" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>218</v>
       </c>
@@ -10530,7 +10586,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="169" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>218</v>
       </c>
@@ -10556,7 +10612,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="170" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>218</v>
       </c>
@@ -10582,7 +10638,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="171" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>218</v>
       </c>
@@ -10608,7 +10664,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="172" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>218</v>
       </c>
@@ -10634,7 +10690,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="173" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>218</v>
       </c>
@@ -10660,7 +10716,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="174" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>218</v>
       </c>
@@ -10686,7 +10742,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="175" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>218</v>
       </c>
@@ -10712,7 +10768,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="176" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>218</v>
       </c>
@@ -10738,7 +10794,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="177" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>218</v>
       </c>
@@ -10764,7 +10820,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="178" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>218</v>
       </c>
@@ -10790,7 +10846,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="179" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>218</v>
       </c>
@@ -10816,7 +10872,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="180" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>218</v>
       </c>
@@ -10842,7 +10898,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="181" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>218</v>
       </c>
@@ -10868,7 +10924,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="182" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>218</v>
       </c>
@@ -10894,7 +10950,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="183" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>218</v>
       </c>
@@ -10920,7 +10976,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="184" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>218</v>
       </c>
@@ -10946,7 +11002,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="185" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>218</v>
       </c>
@@ -10972,7 +11028,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="186" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>218</v>
       </c>
@@ -10998,7 +11054,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="187" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>218</v>
       </c>
@@ -11024,7 +11080,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="188" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>218</v>
       </c>
@@ -11050,7 +11106,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="189" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>218</v>
       </c>
@@ -11076,7 +11132,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="190" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>218</v>
       </c>
@@ -11102,7 +11158,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="191" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>218</v>
       </c>
@@ -11128,7 +11184,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="192" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>218</v>
       </c>
@@ -11154,7 +11210,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="193" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>218</v>
       </c>
@@ -11180,7 +11236,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="194" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>218</v>
       </c>
@@ -11206,7 +11262,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="195" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>218</v>
       </c>
@@ -11232,7 +11288,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="196" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>218</v>
       </c>
@@ -11258,7 +11314,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="197" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>218</v>
       </c>
@@ -11284,7 +11340,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="198" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>218</v>
       </c>
@@ -11310,7 +11366,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="199" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>218</v>
       </c>
@@ -11336,7 +11392,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="200" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>218</v>
       </c>
@@ -11362,7 +11418,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="201" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>218</v>
       </c>
@@ -11388,7 +11444,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="202" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>218</v>
       </c>
@@ -11414,7 +11470,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="203" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>218</v>
       </c>
@@ -11440,7 +11496,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="204" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>218</v>
       </c>
@@ -11466,7 +11522,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="205" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>218</v>
       </c>
@@ -11492,7 +11548,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="206" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>218</v>
       </c>
@@ -11518,7 +11574,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="207" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>218</v>
       </c>
@@ -11544,7 +11600,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="208" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>218</v>
       </c>
@@ -11570,7 +11626,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="209" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>426</v>
       </c>
@@ -11596,7 +11652,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="210" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>426</v>
       </c>
@@ -11622,7 +11678,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="211" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>426</v>
       </c>
@@ -11648,7 +11704,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="212" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>426</v>
       </c>
@@ -11674,7 +11730,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="213" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>426</v>
       </c>
@@ -11700,7 +11756,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="214" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>426</v>
       </c>
@@ -11726,7 +11782,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="215" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>426</v>
       </c>
@@ -11752,7 +11808,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="216" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>426</v>
       </c>
@@ -11778,7 +11834,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="217" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>426</v>
       </c>
@@ -11804,7 +11860,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="218" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>426</v>
       </c>
@@ -11830,7 +11886,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="219" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>426</v>
       </c>
@@ -11856,7 +11912,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="220" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>426</v>
       </c>
@@ -11882,7 +11938,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="221" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>426</v>
       </c>
@@ -11908,7 +11964,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="222" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>426</v>
       </c>
@@ -11934,7 +11990,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="223" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>426</v>
       </c>
@@ -11960,7 +12016,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="224" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>426</v>
       </c>
@@ -11986,7 +12042,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="225" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>426</v>
       </c>
@@ -12012,7 +12068,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="226" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>426</v>
       </c>
@@ -12038,7 +12094,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="227" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>426</v>
       </c>
@@ -12064,7 +12120,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="228" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>426</v>
       </c>
@@ -12090,7 +12146,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="229" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>426</v>
       </c>
@@ -12116,7 +12172,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="230" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>426</v>
       </c>
@@ -12142,7 +12198,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="231" ht="75" customHeight="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>426</v>
       </c>
@@ -12170,12 +12226,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12183,7 +12239,7 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
@@ -12196,7 +12252,7 @@
     <col min="10" max="10" width="125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>216</v>
       </c>
@@ -12228,7 +12284,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>519</v>
       </c>
@@ -12260,7 +12316,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>519</v>
       </c>
@@ -12292,7 +12348,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>519</v>
       </c>
@@ -12324,7 +12380,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>519</v>
       </c>
@@ -12356,7 +12412,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>519</v>
       </c>
@@ -12388,7 +12444,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>519</v>
       </c>
@@ -12420,7 +12476,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>519</v>
       </c>
@@ -12452,7 +12508,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>519</v>
       </c>
@@ -12484,7 +12540,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>519</v>
       </c>
@@ -12516,7 +12572,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>519</v>
       </c>
@@ -12548,7 +12604,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>519</v>
       </c>
@@ -12580,7 +12636,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" ht="75" customHeight="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>519</v>
       </c>
@@ -12614,6 +12670,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/assets/importSamples/Trak-Detailed-XLSX-Export-Sample/Trak-Detailed-XLSX-Export-Sample.xlsx
+++ b/assets/importSamples/Trak-Detailed-XLSX-Export-Sample/Trak-Detailed-XLSX-Export-Sample.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C7C621-B912-46D1-B93A-5A506CA09477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB55D54-83B7-42F5-B2D9-95B41978DC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-3900" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38490" yWindow="-3790" windowWidth="19380" windowHeight="20970" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Category-Anime" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3123" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3143" uniqueCount="562">
   <si>
     <t>Name</t>
   </si>
@@ -1673,13 +1673,61 @@
   </si>
   <si>
     <t>Winter 2023</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>https://myanimelist.net/anime/30276/One_Punch_Man?q=one%20punch%20man&amp;cat=anime</t>
+  </si>
+  <si>
+    <t>https://myanimelist.net/anime/50594/Suzume_no_Tojimari?q=suzume&amp;cat=anime</t>
+  </si>
+  <si>
+    <t>https://myanimelist.net/anime/52305/Tomo-chan_wa_Onnanoko?q=tomo-chan&amp;cat=anime</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/book/show/32829.Journey_to_the_Center_of_the_Earth</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/book/show/61215351-the-fellowship-of-the-ring</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/book/show/10638.The_Road_to_Reality</t>
+  </si>
+  <si>
+    <t>https://www.imdb.com/title/tt4154756/</t>
+  </si>
+  <si>
+    <t>https://www.imdb.com/title/tt0076759/</t>
+  </si>
+  <si>
+    <t>https://www.imdb.com/title/tt0298814/</t>
+  </si>
+  <si>
+    <t>https://myanimelist.net/manga/96792/Kimetsu_no_Yaiba</t>
+  </si>
+  <si>
+    <t>https://myanimelist.net/manga/127138/Romantic_Killer?q=romantic%20killer&amp;cat=manga</t>
+  </si>
+  <si>
+    <t>https://myanimelist.net/manga/3159/Tista?q=tista&amp;cat=manga</t>
+  </si>
+  <si>
+    <t>https://www.imdb.com/title/tt13622776/</t>
+  </si>
+  <si>
+    <t>https://www.imdb.com/title/tt9253284/</t>
+  </si>
+  <si>
+    <t>https://www.imdb.com/title/tt13157618/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1705,6 +1753,14 @@
     <font>
       <b/>
       <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1742,10 +1798,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1765,8 +1822,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2104,13 +2165,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M15" sqref="M15"/>
+      <selection pane="bottomRight" activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2121,54 +2182,57 @@
     <col min="4" max="5" width="125" customWidth="1"/>
     <col min="6" max="11" width="30" customWidth="1"/>
     <col min="12" max="13" width="15" customWidth="1"/>
-    <col min="14" max="14" width="40" customWidth="1"/>
+    <col min="14" max="15" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:15" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O1" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -2211,8 +2275,11 @@
       <c r="N2" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O2" s="7" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -2255,8 +2322,11 @@
       <c r="N3" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O3" s="7" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>30</v>
       </c>
@@ -2298,6 +2368,9 @@
       </c>
       <c r="N4" s="2" t="s">
         <v>36</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>549</v>
       </c>
     </row>
   </sheetData>
@@ -2305,9 +2378,12 @@
     <hyperlink ref="A2" location="#'Anime-OnePunchMan'!A2" display="One Punch Man" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="A3" location="#'Anime-Suzume'!A2" display="Suzume" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="A4" location="'Anime-Tomo-chanIsAGirl!'!A2" display="Tomo-chan is a Girl!" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="O2" r:id="rId1" xr:uid="{798D9AFF-2FA1-4575-82B4-C2D8457B0EE3}"/>
+    <hyperlink ref="O3" r:id="rId2" xr:uid="{209C5899-57EA-4808-B8BB-735E58C8997B}"/>
+    <hyperlink ref="O4" r:id="rId3" xr:uid="{382C68DB-B695-4CC2-BCFF-285499AA1055}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -4617,13 +4693,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4638,10 +4714,10 @@
     <col min="10" max="10" width="20" customWidth="1"/>
     <col min="11" max="11" width="30" customWidth="1"/>
     <col min="12" max="12" width="25" customWidth="1"/>
-    <col min="13" max="13" width="40" customWidth="1"/>
+    <col min="13" max="14" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -4681,8 +4757,11 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N1" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>46</v>
       </c>
@@ -4722,8 +4801,11 @@
       <c r="M2" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N2" s="7" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>56</v>
       </c>
@@ -4763,8 +4845,11 @@
       <c r="M3" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N3" s="7" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>66</v>
       </c>
@@ -4804,8 +4889,16 @@
       <c r="M4" s="2" t="s">
         <v>73</v>
       </c>
+      <c r="N4" s="7" t="s">
+        <v>552</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="N2" r:id="rId1" xr:uid="{51F7919A-FDE9-4BEE-A503-84ADF21B70E5}"/>
+    <hyperlink ref="N3" r:id="rId2" xr:uid="{B4AF1B7F-C2FB-46B8-9ADB-53D61446D523}"/>
+    <hyperlink ref="N4" r:id="rId3" xr:uid="{89B8FA0D-37BE-4E4D-9D30-2E0D568CF5CD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
@@ -4813,13 +4906,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4831,10 +4924,10 @@
     <col min="6" max="6" width="25" customWidth="1"/>
     <col min="7" max="15" width="30" customWidth="1"/>
     <col min="16" max="17" width="25" customWidth="1"/>
-    <col min="18" max="18" width="40" customWidth="1"/>
+    <col min="18" max="19" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4889,8 +4982,11 @@
       <c r="R1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S1" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>83</v>
       </c>
@@ -4945,8 +5041,11 @@
       <c r="R2" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S2" s="7" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>95</v>
       </c>
@@ -5001,8 +5100,11 @@
       <c r="R3" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S3" s="7" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>106</v>
       </c>
@@ -5057,8 +5159,16 @@
       <c r="R4" s="2" t="s">
         <v>117</v>
       </c>
+      <c r="S4" s="7" t="s">
+        <v>555</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="S2" r:id="rId1" xr:uid="{3DC4C90B-503D-4E7E-8A68-6DD37F9771C9}"/>
+    <hyperlink ref="S3" r:id="rId2" xr:uid="{B63033D2-7644-470D-8B63-9294288DD3CD}"/>
+    <hyperlink ref="S4" r:id="rId3" xr:uid="{488C3543-AA38-44F7-B3C4-40F27F37128C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
@@ -5066,13 +5176,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5083,10 +5193,10 @@
     <col min="4" max="5" width="125" customWidth="1"/>
     <col min="6" max="11" width="30" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="40" customWidth="1"/>
+    <col min="13" max="14" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5126,8 +5236,11 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N1" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>123</v>
       </c>
@@ -5167,8 +5280,11 @@
       <c r="M2" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N2" s="7" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>131</v>
       </c>
@@ -5208,8 +5324,11 @@
       <c r="M3" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N3" s="7" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>138</v>
       </c>
@@ -5248,6 +5367,9 @@
       </c>
       <c r="M4" s="2" t="s">
         <v>144</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>558</v>
       </c>
     </row>
   </sheetData>
@@ -5255,6 +5377,9 @@
     <hyperlink ref="A2" location="#'Manga-DemonSlayer-KimetsuNoYaib'!A2" display="Demon Slayer: Kimetsu no Yaiba" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
     <hyperlink ref="A3" location="#'Manga-RomanticKiller'!A2" display="Romantic Killer" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
     <hyperlink ref="A4" location="#'Manga-Tista'!A2" display="Tista" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="N2" r:id="rId1" xr:uid="{ADB8F7BA-F3E3-4A5D-AC0C-482E5BC30F5B}"/>
+    <hyperlink ref="N3" r:id="rId2" xr:uid="{BD682370-E023-4441-8039-2C999A8454AB}"/>
+    <hyperlink ref="N4" r:id="rId3" xr:uid="{57F5C168-7896-47CF-BD9C-9DD5C4FD6F85}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
@@ -5263,13 +5388,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5281,10 +5406,10 @@
     <col min="6" max="6" width="25" customWidth="1"/>
     <col min="7" max="15" width="30" customWidth="1"/>
     <col min="16" max="16" width="25" customWidth="1"/>
-    <col min="17" max="17" width="40" customWidth="1"/>
+    <col min="17" max="18" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5336,8 +5461,11 @@
       <c r="Q1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R1" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>145</v>
       </c>
@@ -5389,8 +5517,11 @@
       <c r="Q2" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R2" s="7" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>157</v>
       </c>
@@ -5442,8 +5573,11 @@
       <c r="Q3" s="2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R3" s="7" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>169</v>
       </c>
@@ -5494,6 +5628,9 @@
       </c>
       <c r="Q4" s="2" t="s">
         <v>180</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>561</v>
       </c>
     </row>
   </sheetData>
@@ -5501,6 +5638,9 @@
     <hyperlink ref="A2" location="#'Show-Ahsoka'!A2" display="Ahsoka" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
     <hyperlink ref="A3" location="#'Show-Andor'!A2" display="Andor" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
     <hyperlink ref="A4" location="#'Show-SecretInvasion'!A2" display="Secret Invasion" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="R2" r:id="rId1" xr:uid="{C2A4E080-A562-4476-BE4D-352C2B7D14B9}"/>
+    <hyperlink ref="R3" r:id="rId2" xr:uid="{9F2E0AEF-F7C1-4EF5-9859-4F918488FFB2}"/>
+    <hyperlink ref="R4" r:id="rId3" xr:uid="{EBCEE00B-3EBE-469F-AC51-E80C608722E7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
